--- a/data.xlsx
+++ b/data.xlsx
@@ -375,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:AE87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:G33"/>
+      <selection activeCell="B58" sqref="B58:AE88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +546,7 @@
         <v>0.10637405668014797</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -554,7 +554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f>PI()</f>
         <v>3.1415926535897931</v>
@@ -580,7 +580,7 @@
         <v>3.1415926535897931</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f>$A$12/$B$19*(ROW()-20)</f>
         <v>0.62831853071795862</v>
@@ -602,7 +602,7 @@
         <v>0.58778525229247314</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" ref="A22:A25" si="4">$A$12/$B$19*(ROW()-20)</f>
         <v>1.2566370614359172</v>
@@ -624,7 +624,7 @@
         <v>0.95105651629515353</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="4"/>
         <v>1.8849555921538759</v>
@@ -646,7 +646,7 @@
         <v>0.95105651629515375</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="4"/>
         <v>2.5132741228718345</v>
@@ -668,10 +668,3795 @@
         <v>0.58778525229247325</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="4"/>
         <v>3.1415926535897931</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>0.49107000000000001</v>
+      </c>
+      <c r="C31">
+        <v>0.67918299999999998</v>
+      </c>
+      <c r="D31">
+        <v>0.76129899999999995</v>
+      </c>
+      <c r="E31">
+        <v>0.79911799999999999</v>
+      </c>
+      <c r="F31">
+        <v>0.813697</v>
+      </c>
+      <c r="G31">
+        <v>0.81157900000000005</v>
+      </c>
+      <c r="H31">
+        <v>0.79147199999999995</v>
+      </c>
+      <c r="I31">
+        <v>0.74254799999999999</v>
+      </c>
+      <c r="J31">
+        <v>0.63124599999999997</v>
+      </c>
+      <c r="K31">
+        <v>0.35211300000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>0.28509600000000002</v>
+      </c>
+      <c r="C32">
+        <v>0.464362</v>
+      </c>
+      <c r="D32">
+        <v>0.56689500000000004</v>
+      </c>
+      <c r="E32">
+        <v>0.621475</v>
+      </c>
+      <c r="F32">
+        <v>0.644092</v>
+      </c>
+      <c r="G32">
+        <v>0.64114800000000005</v>
+      </c>
+      <c r="H32">
+        <v>0.61175900000000005</v>
+      </c>
+      <c r="I32">
+        <v>0.54747599999999996</v>
+      </c>
+      <c r="J32">
+        <v>0.43032100000000001</v>
+      </c>
+      <c r="K32">
+        <v>0.236905</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>0.18495300000000001</v>
+      </c>
+      <c r="C33">
+        <v>0.32627400000000001</v>
+      </c>
+      <c r="D33">
+        <v>0.42044399999999998</v>
+      </c>
+      <c r="E33">
+        <v>0.47579399999999999</v>
+      </c>
+      <c r="F33">
+        <v>0.50004800000000005</v>
+      </c>
+      <c r="G33">
+        <v>0.49716300000000002</v>
+      </c>
+      <c r="H33">
+        <v>0.46693800000000002</v>
+      </c>
+      <c r="I33">
+        <v>0.40527800000000003</v>
+      </c>
+      <c r="J33">
+        <v>0.30565500000000001</v>
+      </c>
+      <c r="K33">
+        <v>0.165187</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>0.128441</v>
+      </c>
+      <c r="C34">
+        <v>0.23533799999999999</v>
+      </c>
+      <c r="D34">
+        <v>0.31281300000000001</v>
+      </c>
+      <c r="E34">
+        <v>0.36120999999999998</v>
+      </c>
+      <c r="F34">
+        <v>0.38314399999999998</v>
+      </c>
+      <c r="G34">
+        <v>0.38051699999999999</v>
+      </c>
+      <c r="H34">
+        <v>0.35355399999999998</v>
+      </c>
+      <c r="I34">
+        <v>0.30104199999999998</v>
+      </c>
+      <c r="J34">
+        <v>0.221834</v>
+      </c>
+      <c r="K34">
+        <v>0.118187</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>9.3472899999999998E-2</v>
+      </c>
+      <c r="C35">
+        <v>0.173822</v>
+      </c>
+      <c r="D35">
+        <v>0.234262</v>
+      </c>
+      <c r="E35">
+        <v>0.27308700000000002</v>
+      </c>
+      <c r="F35">
+        <v>0.29079899999999997</v>
+      </c>
+      <c r="G35">
+        <v>0.28820899999999999</v>
+      </c>
+      <c r="H35">
+        <v>0.26571899999999998</v>
+      </c>
+      <c r="I35">
+        <v>0.22350300000000001</v>
+      </c>
+      <c r="J35">
+        <v>0.16245200000000001</v>
+      </c>
+      <c r="K35">
+        <v>8.5728399999999996E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>7.1628300000000006E-2</v>
+      </c>
+      <c r="C36">
+        <v>0.132218</v>
+      </c>
+      <c r="D36">
+        <v>0.17732400000000001</v>
+      </c>
+      <c r="E36">
+        <v>0.20607800000000001</v>
+      </c>
+      <c r="F36">
+        <v>0.21875800000000001</v>
+      </c>
+      <c r="G36">
+        <v>0.21580099999999999</v>
+      </c>
+      <c r="H36">
+        <v>0.19760900000000001</v>
+      </c>
+      <c r="I36">
+        <v>0.164798</v>
+      </c>
+      <c r="J36">
+        <v>0.118744</v>
+      </c>
+      <c r="K36">
+        <v>6.2273799999999997E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>6.0822599999999997E-2</v>
+      </c>
+      <c r="C37">
+        <v>0.106096</v>
+      </c>
+      <c r="D37">
+        <v>0.136738</v>
+      </c>
+      <c r="E37">
+        <v>0.155143</v>
+      </c>
+      <c r="F37">
+        <v>0.162353</v>
+      </c>
+      <c r="G37">
+        <v>0.15862599999999999</v>
+      </c>
+      <c r="H37">
+        <v>0.144121</v>
+      </c>
+      <c r="I37">
+        <v>0.119334</v>
+      </c>
+      <c r="J37">
+        <v>8.5451899999999997E-2</v>
+      </c>
+      <c r="K37">
+        <v>4.4623099999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>6.5565799999999994E-2</v>
+      </c>
+      <c r="C38">
+        <v>9.46071E-2</v>
+      </c>
+      <c r="D38">
+        <v>0.108389</v>
+      </c>
+      <c r="E38">
+        <v>0.115402</v>
+      </c>
+      <c r="F38">
+        <v>0.116884</v>
+      </c>
+      <c r="G38">
+        <v>0.112231</v>
+      </c>
+      <c r="H38">
+        <v>0.100914</v>
+      </c>
+      <c r="I38">
+        <v>8.2965800000000006E-2</v>
+      </c>
+      <c r="J38">
+        <v>5.9106699999999998E-2</v>
+      </c>
+      <c r="K38">
+        <v>3.0766700000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>0.106834</v>
+      </c>
+      <c r="C39">
+        <v>9.8377300000000001E-2</v>
+      </c>
+      <c r="D39">
+        <v>8.6808200000000002E-2</v>
+      </c>
+      <c r="E39">
+        <v>8.1194699999999995E-2</v>
+      </c>
+      <c r="F39">
+        <v>7.7548099999999995E-2</v>
+      </c>
+      <c r="G39">
+        <v>7.2500599999999998E-2</v>
+      </c>
+      <c r="H39">
+        <v>6.4337800000000001E-2</v>
+      </c>
+      <c r="I39">
+        <v>5.2508600000000002E-2</v>
+      </c>
+      <c r="J39">
+        <v>3.7242400000000002E-2</v>
+      </c>
+      <c r="K39">
+        <v>1.9336900000000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>0.26339099999999999</v>
+      </c>
+      <c r="C40">
+        <v>0.10526000000000001</v>
+      </c>
+      <c r="D40">
+        <v>5.9272100000000001E-2</v>
+      </c>
+      <c r="E40">
+        <v>4.5019999999999998E-2</v>
+      </c>
+      <c r="F40">
+        <v>3.96134E-2</v>
+      </c>
+      <c r="G40">
+        <v>3.5885500000000001E-2</v>
+      </c>
+      <c r="H40">
+        <v>3.1427900000000002E-2</v>
+      </c>
+      <c r="I40">
+        <v>2.5488500000000001E-2</v>
+      </c>
+      <c r="J40">
+        <v>1.8017399999999999E-2</v>
+      </c>
+      <c r="K40">
+        <v>9.3385699999999992E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>0.49575000000000002</v>
+      </c>
+      <c r="C42">
+        <v>0.68903400000000004</v>
+      </c>
+      <c r="D42">
+        <v>0.77737800000000001</v>
+      </c>
+      <c r="E42">
+        <v>0.82326500000000002</v>
+      </c>
+      <c r="F42">
+        <v>0.84904900000000005</v>
+      </c>
+      <c r="G42">
+        <v>0.863734</v>
+      </c>
+      <c r="H42">
+        <v>0.87126000000000003</v>
+      </c>
+      <c r="I42">
+        <v>0.87331000000000003</v>
+      </c>
+      <c r="J42">
+        <v>0.87028000000000005</v>
+      </c>
+      <c r="K42">
+        <v>0.86146</v>
+      </c>
+      <c r="L42">
+        <v>0.844611</v>
+      </c>
+      <c r="M42">
+        <v>0.814446</v>
+      </c>
+      <c r="N42">
+        <v>0.75811700000000004</v>
+      </c>
+      <c r="O42">
+        <v>0.64093599999999995</v>
+      </c>
+      <c r="P42">
+        <v>0.35676999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>0.29396499999999998</v>
+      </c>
+      <c r="C43">
+        <v>0.48300799999999999</v>
+      </c>
+      <c r="D43">
+        <v>0.59721400000000002</v>
+      </c>
+      <c r="E43">
+        <v>0.666632</v>
+      </c>
+      <c r="F43">
+        <v>0.70919699999999997</v>
+      </c>
+      <c r="G43">
+        <v>0.734626</v>
+      </c>
+      <c r="H43">
+        <v>0.74799599999999999</v>
+      </c>
+      <c r="I43">
+        <v>0.75170199999999998</v>
+      </c>
+      <c r="J43">
+        <v>0.74634900000000004</v>
+      </c>
+      <c r="K43">
+        <v>0.73094800000000004</v>
+      </c>
+      <c r="L43">
+        <v>0.70254000000000005</v>
+      </c>
+      <c r="M43">
+        <v>0.655057</v>
+      </c>
+      <c r="N43">
+        <v>0.57708499999999996</v>
+      </c>
+      <c r="O43">
+        <v>0.44885599999999998</v>
+      </c>
+      <c r="P43">
+        <v>0.245841</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>0.197102</v>
+      </c>
+      <c r="C44">
+        <v>0.35181899999999999</v>
+      </c>
+      <c r="D44">
+        <v>0.46183800000000003</v>
+      </c>
+      <c r="E44">
+        <v>0.53685300000000002</v>
+      </c>
+      <c r="F44">
+        <v>0.58648100000000003</v>
+      </c>
+      <c r="G44">
+        <v>0.61757899999999999</v>
+      </c>
+      <c r="H44">
+        <v>0.63439400000000001</v>
+      </c>
+      <c r="I44">
+        <v>0.63915299999999997</v>
+      </c>
+      <c r="J44">
+        <v>0.63246500000000005</v>
+      </c>
+      <c r="K44">
+        <v>0.61344299999999996</v>
+      </c>
+      <c r="L44">
+        <v>0.579542</v>
+      </c>
+      <c r="M44">
+        <v>0.52615800000000001</v>
+      </c>
+      <c r="N44">
+        <v>0.44630900000000001</v>
+      </c>
+      <c r="O44">
+        <v>0.33156400000000003</v>
+      </c>
+      <c r="P44">
+        <v>0.17773900000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>0.142623</v>
+      </c>
+      <c r="C45">
+        <v>0.26532699999999998</v>
+      </c>
+      <c r="D45">
+        <v>0.36146499999999998</v>
+      </c>
+      <c r="E45">
+        <v>0.43246200000000001</v>
+      </c>
+      <c r="F45">
+        <v>0.482294</v>
+      </c>
+      <c r="G45">
+        <v>0.51481299999999997</v>
+      </c>
+      <c r="H45">
+        <v>0.53285000000000005</v>
+      </c>
+      <c r="I45">
+        <v>0.53805099999999995</v>
+      </c>
+      <c r="J45">
+        <v>0.530914</v>
+      </c>
+      <c r="K45">
+        <v>0.51081900000000002</v>
+      </c>
+      <c r="L45">
+        <v>0.476026</v>
+      </c>
+      <c r="M45">
+        <v>0.42372399999999999</v>
+      </c>
+      <c r="N45">
+        <v>0.35042899999999999</v>
+      </c>
+      <c r="O45">
+        <v>0.25335099999999999</v>
+      </c>
+      <c r="P45">
+        <v>0.13355</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>0.10806399999999999</v>
+      </c>
+      <c r="C46">
+        <v>0.2054</v>
+      </c>
+      <c r="D46">
+        <v>0.28623500000000002</v>
+      </c>
+      <c r="E46">
+        <v>0.34923500000000002</v>
+      </c>
+      <c r="F46">
+        <v>0.39542100000000002</v>
+      </c>
+      <c r="G46">
+        <v>0.42652899999999999</v>
+      </c>
+      <c r="H46">
+        <v>0.44414100000000001</v>
+      </c>
+      <c r="I46">
+        <v>0.44928800000000002</v>
+      </c>
+      <c r="J46">
+        <v>0.44232100000000002</v>
+      </c>
+      <c r="K46">
+        <v>0.42289300000000002</v>
+      </c>
+      <c r="L46">
+        <v>0.390019</v>
+      </c>
+      <c r="M46">
+        <v>0.34228399999999998</v>
+      </c>
+      <c r="N46">
+        <v>0.278333</v>
+      </c>
+      <c r="O46">
+        <v>0.19786200000000001</v>
+      </c>
+      <c r="P46">
+        <v>0.10310800000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>8.4233199999999994E-2</v>
+      </c>
+      <c r="C47">
+        <v>0.16197600000000001</v>
+      </c>
+      <c r="D47">
+        <v>0.22883800000000001</v>
+      </c>
+      <c r="E47">
+        <v>0.28282499999999999</v>
+      </c>
+      <c r="F47">
+        <v>0.32362299999999999</v>
+      </c>
+      <c r="G47">
+        <v>0.35174299999999997</v>
+      </c>
+      <c r="H47">
+        <v>0.367898</v>
+      </c>
+      <c r="I47">
+        <v>0.37263800000000002</v>
+      </c>
+      <c r="J47">
+        <v>0.36619000000000002</v>
+      </c>
+      <c r="K47">
+        <v>0.348412</v>
+      </c>
+      <c r="L47">
+        <v>0.31887399999999999</v>
+      </c>
+      <c r="M47">
+        <v>0.27705800000000003</v>
+      </c>
+      <c r="N47">
+        <v>0.22275600000000001</v>
+      </c>
+      <c r="O47">
+        <v>0.15665599999999999</v>
+      </c>
+      <c r="P47">
+        <v>8.1021899999999994E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>6.6892499999999994E-2</v>
+      </c>
+      <c r="C48">
+        <v>0.12943399999999999</v>
+      </c>
+      <c r="D48">
+        <v>0.18431400000000001</v>
+      </c>
+      <c r="E48">
+        <v>0.229603</v>
+      </c>
+      <c r="F48">
+        <v>0.26450400000000002</v>
+      </c>
+      <c r="G48">
+        <v>0.28892299999999999</v>
+      </c>
+      <c r="H48">
+        <v>0.30306699999999998</v>
+      </c>
+      <c r="I48">
+        <v>0.30717800000000001</v>
+      </c>
+      <c r="J48">
+        <v>0.30138900000000002</v>
+      </c>
+      <c r="K48">
+        <v>0.28569299999999997</v>
+      </c>
+      <c r="L48">
+        <v>0.26000499999999999</v>
+      </c>
+      <c r="M48">
+        <v>0.22432099999999999</v>
+      </c>
+      <c r="N48">
+        <v>0.178977</v>
+      </c>
+      <c r="O48">
+        <v>0.124984</v>
+      </c>
+      <c r="P48">
+        <v>6.43233E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>5.3903E-2</v>
+      </c>
+      <c r="C49">
+        <v>0.10455200000000001</v>
+      </c>
+      <c r="D49">
+        <v>0.14938399999999999</v>
+      </c>
+      <c r="E49">
+        <v>0.18676699999999999</v>
+      </c>
+      <c r="F49">
+        <v>0.215867</v>
+      </c>
+      <c r="G49">
+        <v>0.236378</v>
+      </c>
+      <c r="H49">
+        <v>0.24827099999999999</v>
+      </c>
+      <c r="I49">
+        <v>0.25161699999999998</v>
+      </c>
+      <c r="J49">
+        <v>0.24649299999999999</v>
+      </c>
+      <c r="K49">
+        <v>0.23296500000000001</v>
+      </c>
+      <c r="L49">
+        <v>0.21113299999999999</v>
+      </c>
+      <c r="M49">
+        <v>0.18124199999999999</v>
+      </c>
+      <c r="N49">
+        <v>0.143846</v>
+      </c>
+      <c r="O49">
+        <v>9.9979799999999994E-2</v>
+      </c>
+      <c r="P49">
+        <v>5.1287399999999997E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>4.4167699999999997E-2</v>
+      </c>
+      <c r="C50">
+        <v>8.5486099999999995E-2</v>
+      </c>
+      <c r="D50">
+        <v>0.121902</v>
+      </c>
+      <c r="E50">
+        <v>0.15221499999999999</v>
+      </c>
+      <c r="F50">
+        <v>0.17582</v>
+      </c>
+      <c r="G50">
+        <v>0.19245100000000001</v>
+      </c>
+      <c r="H50">
+        <v>0.20202100000000001</v>
+      </c>
+      <c r="I50">
+        <v>0.20452500000000001</v>
+      </c>
+      <c r="J50">
+        <v>0.20000299999999999</v>
+      </c>
+      <c r="K50">
+        <v>0.18854299999999999</v>
+      </c>
+      <c r="L50">
+        <v>0.170319</v>
+      </c>
+      <c r="M50">
+        <v>0.14566999999999999</v>
+      </c>
+      <c r="N50">
+        <v>0.115185</v>
+      </c>
+      <c r="O50">
+        <v>7.9801800000000006E-2</v>
+      </c>
+      <c r="P50">
+        <v>4.08467E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>3.7281799999999997E-2</v>
+      </c>
+      <c r="C51">
+        <v>7.1322899999999995E-2</v>
+      </c>
+      <c r="D51">
+        <v>0.100524</v>
+      </c>
+      <c r="E51">
+        <v>0.124373</v>
+      </c>
+      <c r="F51">
+        <v>0.14274500000000001</v>
+      </c>
+      <c r="G51">
+        <v>0.155584</v>
+      </c>
+      <c r="H51">
+        <v>0.16283600000000001</v>
+      </c>
+      <c r="I51">
+        <v>0.16445899999999999</v>
+      </c>
+      <c r="J51">
+        <v>0.16045100000000001</v>
+      </c>
+      <c r="K51">
+        <v>0.15088299999999999</v>
+      </c>
+      <c r="L51">
+        <v>0.135932</v>
+      </c>
+      <c r="M51">
+        <v>0.11593199999999999</v>
+      </c>
+      <c r="N51">
+        <v>9.1423299999999999E-2</v>
+      </c>
+      <c r="O51">
+        <v>6.3195500000000002E-2</v>
+      </c>
+      <c r="P51">
+        <v>3.2297399999999997E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>3.3636699999999999E-2</v>
+      </c>
+      <c r="C52">
+        <v>6.2000100000000002E-2</v>
+      </c>
+      <c r="D52">
+        <v>8.4496000000000002E-2</v>
+      </c>
+      <c r="E52">
+        <v>0.102008</v>
+      </c>
+      <c r="F52">
+        <v>0.115203</v>
+      </c>
+      <c r="G52">
+        <v>0.124306</v>
+      </c>
+      <c r="H52">
+        <v>0.12928100000000001</v>
+      </c>
+      <c r="I52">
+        <v>0.130023</v>
+      </c>
+      <c r="J52">
+        <v>0.12645999999999999</v>
+      </c>
+      <c r="K52">
+        <v>0.118605</v>
+      </c>
+      <c r="L52">
+        <v>0.10659299999999999</v>
+      </c>
+      <c r="M52">
+        <v>9.0702500000000005E-2</v>
+      </c>
+      <c r="N52">
+        <v>7.1380799999999994E-2</v>
+      </c>
+      <c r="O52">
+        <v>4.9259299999999999E-2</v>
+      </c>
+      <c r="P52">
+        <v>2.5147599999999999E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>3.5264999999999998E-2</v>
+      </c>
+      <c r="C53">
+        <v>5.8544600000000002E-2</v>
+      </c>
+      <c r="D53">
+        <v>7.3453000000000004E-2</v>
+      </c>
+      <c r="E53">
+        <v>8.3958000000000005E-2</v>
+      </c>
+      <c r="F53">
+        <v>9.1754600000000006E-2</v>
+      </c>
+      <c r="G53">
+        <v>9.7154199999999996E-2</v>
+      </c>
+      <c r="H53">
+        <v>9.9959400000000004E-2</v>
+      </c>
+      <c r="I53">
+        <v>9.9893700000000002E-2</v>
+      </c>
+      <c r="J53">
+        <v>9.6759700000000004E-2</v>
+      </c>
+      <c r="K53">
+        <v>9.0485399999999994E-2</v>
+      </c>
+      <c r="L53">
+        <v>8.1133399999999994E-2</v>
+      </c>
+      <c r="M53">
+        <v>6.8904099999999996E-2</v>
+      </c>
+      <c r="N53">
+        <v>5.4137999999999999E-2</v>
+      </c>
+      <c r="O53">
+        <v>3.7313399999999997E-2</v>
+      </c>
+      <c r="P53">
+        <v>1.90338E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>4.8878699999999997E-2</v>
+      </c>
+      <c r="C54">
+        <v>6.3460199999999994E-2</v>
+      </c>
+      <c r="D54">
+        <v>6.6813600000000001E-2</v>
+      </c>
+      <c r="E54">
+        <v>6.8616700000000003E-2</v>
+      </c>
+      <c r="F54">
+        <v>7.0703000000000002E-2</v>
+      </c>
+      <c r="G54">
+        <v>7.2596999999999995E-2</v>
+      </c>
+      <c r="H54">
+        <v>7.3508699999999996E-2</v>
+      </c>
+      <c r="I54">
+        <v>7.2832099999999997E-2</v>
+      </c>
+      <c r="J54">
+        <v>7.0199899999999996E-2</v>
+      </c>
+      <c r="K54">
+        <v>6.5443100000000004E-2</v>
+      </c>
+      <c r="L54">
+        <v>5.85508E-2</v>
+      </c>
+      <c r="M54">
+        <v>4.9642600000000002E-2</v>
+      </c>
+      <c r="N54">
+        <v>3.8953799999999997E-2</v>
+      </c>
+      <c r="O54">
+        <v>2.68224E-2</v>
+      </c>
+      <c r="P54">
+        <v>1.3674199999999999E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>9.6789600000000003E-2</v>
+      </c>
+      <c r="C55">
+        <v>7.9603999999999994E-2</v>
+      </c>
+      <c r="D55">
+        <v>6.1724399999999999E-2</v>
+      </c>
+      <c r="E55">
+        <v>5.2992299999999999E-2</v>
+      </c>
+      <c r="F55">
+        <v>4.9843800000000001E-2</v>
+      </c>
+      <c r="G55">
+        <v>4.9022200000000002E-2</v>
+      </c>
+      <c r="H55">
+        <v>4.8646200000000001E-2</v>
+      </c>
+      <c r="I55">
+        <v>4.7726299999999999E-2</v>
+      </c>
+      <c r="J55">
+        <v>4.57645E-2</v>
+      </c>
+      <c r="K55">
+        <v>4.2536600000000001E-2</v>
+      </c>
+      <c r="L55">
+        <v>3.7983999999999997E-2</v>
+      </c>
+      <c r="M55">
+        <v>3.2161700000000001E-2</v>
+      </c>
+      <c r="N55">
+        <v>2.5212100000000001E-2</v>
+      </c>
+      <c r="O55">
+        <v>1.7348300000000001E-2</v>
+      </c>
+      <c r="P55">
+        <v>8.8405399999999992E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>0.25867600000000002</v>
+      </c>
+      <c r="C56">
+        <v>9.6441799999999994E-2</v>
+      </c>
+      <c r="D56">
+        <v>4.7487599999999998E-2</v>
+      </c>
+      <c r="E56">
+        <v>3.1784399999999997E-2</v>
+      </c>
+      <c r="F56">
+        <v>2.6657500000000001E-2</v>
+      </c>
+      <c r="G56">
+        <v>2.5001800000000001E-2</v>
+      </c>
+      <c r="H56">
+        <v>2.4327600000000001E-2</v>
+      </c>
+      <c r="I56">
+        <v>2.3662300000000001E-2</v>
+      </c>
+      <c r="J56">
+        <v>2.2595400000000002E-2</v>
+      </c>
+      <c r="K56">
+        <v>2.09547E-2</v>
+      </c>
+      <c r="L56">
+        <v>1.8686700000000001E-2</v>
+      </c>
+      <c r="M56">
+        <v>1.5808300000000001E-2</v>
+      </c>
+      <c r="N56">
+        <v>1.2384600000000001E-2</v>
+      </c>
+      <c r="O56">
+        <v>8.5181500000000004E-3</v>
+      </c>
+      <c r="P56">
+        <v>4.3396700000000003E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>0.498863</v>
+      </c>
+      <c r="C58">
+        <v>0.69537099999999996</v>
+      </c>
+      <c r="D58">
+        <v>0.78716900000000001</v>
+      </c>
+      <c r="E58">
+        <v>0.83687900000000004</v>
+      </c>
+      <c r="F58">
+        <v>0.86703300000000005</v>
+      </c>
+      <c r="G58">
+        <v>0.88687199999999999</v>
+      </c>
+      <c r="H58">
+        <v>0.90067799999999998</v>
+      </c>
+      <c r="I58">
+        <v>0.91065600000000002</v>
+      </c>
+      <c r="J58">
+        <v>0.91803999999999997</v>
+      </c>
+      <c r="K58">
+        <v>0.92356400000000005</v>
+      </c>
+      <c r="L58">
+        <v>0.92769100000000004</v>
+      </c>
+      <c r="M58">
+        <v>0.93071999999999999</v>
+      </c>
+      <c r="N58">
+        <v>0.93284400000000001</v>
+      </c>
+      <c r="O58">
+        <v>0.93418800000000002</v>
+      </c>
+      <c r="P58">
+        <v>0.93482699999999996</v>
+      </c>
+      <c r="Q58">
+        <v>0.93479500000000004</v>
+      </c>
+      <c r="R58">
+        <v>0.934087</v>
+      </c>
+      <c r="S58">
+        <v>0.932666</v>
+      </c>
+      <c r="T58">
+        <v>0.93045100000000003</v>
+      </c>
+      <c r="U58">
+        <v>0.92730400000000002</v>
+      </c>
+      <c r="V58">
+        <v>0.92301699999999998</v>
+      </c>
+      <c r="W58">
+        <v>0.91726099999999999</v>
+      </c>
+      <c r="X58">
+        <v>0.90952299999999997</v>
+      </c>
+      <c r="Y58">
+        <v>0.89896500000000001</v>
+      </c>
+      <c r="Z58">
+        <v>0.884135</v>
+      </c>
+      <c r="AA58">
+        <v>0.86231800000000003</v>
+      </c>
+      <c r="AB58">
+        <v>0.82790900000000001</v>
+      </c>
+      <c r="AC58">
+        <v>0.76783500000000005</v>
+      </c>
+      <c r="AD58">
+        <v>0.64724499999999996</v>
+      </c>
+      <c r="AE58">
+        <v>0.359875</v>
+      </c>
+    </row>
+    <row r="59" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>0.30008099999999999</v>
+      </c>
+      <c r="C59">
+        <v>0.495452</v>
+      </c>
+      <c r="D59">
+        <v>0.61642600000000003</v>
+      </c>
+      <c r="E59">
+        <v>0.69331500000000001</v>
+      </c>
+      <c r="F59">
+        <v>0.74438099999999996</v>
+      </c>
+      <c r="G59">
+        <v>0.779775</v>
+      </c>
+      <c r="H59">
+        <v>0.80518500000000004</v>
+      </c>
+      <c r="I59">
+        <v>0.82390799999999997</v>
+      </c>
+      <c r="J59">
+        <v>0.83793799999999996</v>
+      </c>
+      <c r="K59">
+        <v>0.84852499999999997</v>
+      </c>
+      <c r="L59">
+        <v>0.85648199999999997</v>
+      </c>
+      <c r="M59">
+        <v>0.862344</v>
+      </c>
+      <c r="N59">
+        <v>0.86646699999999999</v>
+      </c>
+      <c r="O59">
+        <v>0.86908200000000002</v>
+      </c>
+      <c r="P59">
+        <v>0.87032699999999996</v>
+      </c>
+      <c r="Q59">
+        <v>0.87026400000000004</v>
+      </c>
+      <c r="R59">
+        <v>0.86888799999999999</v>
+      </c>
+      <c r="S59">
+        <v>0.86612800000000001</v>
+      </c>
+      <c r="T59">
+        <v>0.86183100000000001</v>
+      </c>
+      <c r="U59">
+        <v>0.85575100000000004</v>
+      </c>
+      <c r="V59">
+        <v>0.84750199999999998</v>
+      </c>
+      <c r="W59">
+        <v>0.83650400000000003</v>
+      </c>
+      <c r="X59">
+        <v>0.82186700000000001</v>
+      </c>
+      <c r="Y59">
+        <v>0.80220199999999997</v>
+      </c>
+      <c r="Z59">
+        <v>0.77525500000000003</v>
+      </c>
+      <c r="AA59">
+        <v>0.73722900000000002</v>
+      </c>
+      <c r="AB59">
+        <v>0.68148299999999995</v>
+      </c>
+      <c r="AC59">
+        <v>0.59618700000000002</v>
+      </c>
+      <c r="AD59">
+        <v>0.46126800000000001</v>
+      </c>
+      <c r="AE59">
+        <v>0.25195400000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>0.206008</v>
+      </c>
+      <c r="C60">
+        <v>0.36992999999999998</v>
+      </c>
+      <c r="D60">
+        <v>0.48976799999999998</v>
+      </c>
+      <c r="E60">
+        <v>0.57557499999999995</v>
+      </c>
+      <c r="F60">
+        <v>0.63739999999999997</v>
+      </c>
+      <c r="G60">
+        <v>0.68266400000000005</v>
+      </c>
+      <c r="H60">
+        <v>0.71637899999999999</v>
+      </c>
+      <c r="I60">
+        <v>0.74185299999999998</v>
+      </c>
+      <c r="J60">
+        <v>0.76127699999999998</v>
+      </c>
+      <c r="K60">
+        <v>0.77611699999999995</v>
+      </c>
+      <c r="L60">
+        <v>0.78736799999999996</v>
+      </c>
+      <c r="M60">
+        <v>0.79570799999999997</v>
+      </c>
+      <c r="N60">
+        <v>0.80159899999999995</v>
+      </c>
+      <c r="O60">
+        <v>0.80534700000000004</v>
+      </c>
+      <c r="P60">
+        <v>0.80713400000000002</v>
+      </c>
+      <c r="Q60">
+        <v>0.80704500000000001</v>
+      </c>
+      <c r="R60">
+        <v>0.80507499999999999</v>
+      </c>
+      <c r="S60">
+        <v>0.80112499999999998</v>
+      </c>
+      <c r="T60">
+        <v>0.79499699999999995</v>
+      </c>
+      <c r="U60">
+        <v>0.78636499999999998</v>
+      </c>
+      <c r="V60">
+        <v>0.77473599999999998</v>
+      </c>
+      <c r="W60">
+        <v>0.75938399999999995</v>
+      </c>
+      <c r="X60">
+        <v>0.73924000000000001</v>
+      </c>
+      <c r="Y60">
+        <v>0.71272199999999997</v>
+      </c>
+      <c r="Z60">
+        <v>0.67745500000000003</v>
+      </c>
+      <c r="AA60">
+        <v>0.62986200000000003</v>
+      </c>
+      <c r="AB60">
+        <v>0.56460500000000002</v>
+      </c>
+      <c r="AC60">
+        <v>0.474161</v>
+      </c>
+      <c r="AD60">
+        <v>0.349688</v>
+      </c>
+      <c r="AE60">
+        <v>0.186672</v>
+      </c>
+    </row>
+    <row r="61" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>0.15402199999999999</v>
+      </c>
+      <c r="C61">
+        <v>0.288491</v>
+      </c>
+      <c r="D61">
+        <v>0.397142</v>
+      </c>
+      <c r="E61">
+        <v>0.48181600000000002</v>
+      </c>
+      <c r="F61">
+        <v>0.54698100000000005</v>
+      </c>
+      <c r="G61">
+        <v>0.59710099999999999</v>
+      </c>
+      <c r="H61">
+        <v>0.63581200000000004</v>
+      </c>
+      <c r="I61">
+        <v>0.66584900000000002</v>
+      </c>
+      <c r="J61">
+        <v>0.68920099999999995</v>
+      </c>
+      <c r="K61">
+        <v>0.70729900000000001</v>
+      </c>
+      <c r="L61">
+        <v>0.721163</v>
+      </c>
+      <c r="M61">
+        <v>0.73151999999999995</v>
+      </c>
+      <c r="N61">
+        <v>0.73887499999999995</v>
+      </c>
+      <c r="O61">
+        <v>0.74357099999999998</v>
+      </c>
+      <c r="P61">
+        <v>0.74581699999999995</v>
+      </c>
+      <c r="Q61">
+        <v>0.74570800000000004</v>
+      </c>
+      <c r="R61">
+        <v>0.74324000000000001</v>
+      </c>
+      <c r="S61">
+        <v>0.73830099999999999</v>
+      </c>
+      <c r="T61">
+        <v>0.73066699999999996</v>
+      </c>
+      <c r="U61">
+        <v>0.71997599999999995</v>
+      </c>
+      <c r="V61">
+        <v>0.70569400000000004</v>
+      </c>
+      <c r="W61">
+        <v>0.687056</v>
+      </c>
+      <c r="X61">
+        <v>0.66298800000000002</v>
+      </c>
+      <c r="Y61">
+        <v>0.63198900000000002</v>
+      </c>
+      <c r="Z61">
+        <v>0.59198099999999998</v>
+      </c>
+      <c r="AA61">
+        <v>0.540157</v>
+      </c>
+      <c r="AB61">
+        <v>0.472914</v>
+      </c>
+      <c r="AC61">
+        <v>0.38616499999999998</v>
+      </c>
+      <c r="AD61">
+        <v>0.27665099999999998</v>
+      </c>
+      <c r="AE61">
+        <v>0.14504700000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>0.121589</v>
+      </c>
+      <c r="C62">
+        <v>0.23286999999999999</v>
+      </c>
+      <c r="D62">
+        <v>0.32849200000000001</v>
+      </c>
+      <c r="E62">
+        <v>0.40756700000000001</v>
+      </c>
+      <c r="F62">
+        <v>0.471607</v>
+      </c>
+      <c r="G62">
+        <v>0.52294799999999997</v>
+      </c>
+      <c r="H62">
+        <v>0.56392100000000001</v>
+      </c>
+      <c r="I62">
+        <v>0.59652899999999998</v>
+      </c>
+      <c r="J62">
+        <v>0.62238000000000004</v>
+      </c>
+      <c r="K62">
+        <v>0.64271400000000001</v>
+      </c>
+      <c r="L62">
+        <v>0.65846700000000002</v>
+      </c>
+      <c r="M62">
+        <v>0.67033299999999996</v>
+      </c>
+      <c r="N62">
+        <v>0.67881199999999997</v>
+      </c>
+      <c r="O62">
+        <v>0.68424799999999997</v>
+      </c>
+      <c r="P62">
+        <v>0.68685399999999996</v>
+      </c>
+      <c r="Q62">
+        <v>0.68673300000000004</v>
+      </c>
+      <c r="R62">
+        <v>0.68387600000000004</v>
+      </c>
+      <c r="S62">
+        <v>0.67817300000000003</v>
+      </c>
+      <c r="T62">
+        <v>0.66939400000000004</v>
+      </c>
+      <c r="U62">
+        <v>0.65717899999999996</v>
+      </c>
+      <c r="V62">
+        <v>0.64100699999999999</v>
+      </c>
+      <c r="W62">
+        <v>0.62015900000000002</v>
+      </c>
+      <c r="X62">
+        <v>0.593669</v>
+      </c>
+      <c r="Y62">
+        <v>0.56026399999999998</v>
+      </c>
+      <c r="Z62">
+        <v>0.51832299999999998</v>
+      </c>
+      <c r="AA62">
+        <v>0.46587299999999998</v>
+      </c>
+      <c r="AB62">
+        <v>0.400729</v>
+      </c>
+      <c r="AC62">
+        <v>0.32093500000000003</v>
+      </c>
+      <c r="AD62">
+        <v>0.22570200000000001</v>
+      </c>
+      <c r="AE62">
+        <v>0.116865</v>
+      </c>
+    </row>
+    <row r="63" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>9.94641E-2</v>
+      </c>
+      <c r="C63">
+        <v>0.192908</v>
+      </c>
+      <c r="D63">
+        <v>0.27639000000000002</v>
+      </c>
+      <c r="E63">
+        <v>0.34835199999999999</v>
+      </c>
+      <c r="F63">
+        <v>0.40893099999999999</v>
+      </c>
+      <c r="G63">
+        <v>0.45916200000000001</v>
+      </c>
+      <c r="H63">
+        <v>0.50039299999999998</v>
+      </c>
+      <c r="I63">
+        <v>0.533968</v>
+      </c>
+      <c r="J63">
+        <v>0.56107700000000005</v>
+      </c>
+      <c r="K63">
+        <v>0.58270999999999995</v>
+      </c>
+      <c r="L63">
+        <v>0.59965900000000005</v>
+      </c>
+      <c r="M63">
+        <v>0.61253400000000002</v>
+      </c>
+      <c r="N63">
+        <v>0.62179200000000001</v>
+      </c>
+      <c r="O63">
+        <v>0.62775300000000001</v>
+      </c>
+      <c r="P63">
+        <v>0.63061999999999996</v>
+      </c>
+      <c r="Q63">
+        <v>0.63049100000000002</v>
+      </c>
+      <c r="R63">
+        <v>0.627359</v>
+      </c>
+      <c r="S63">
+        <v>0.62112000000000001</v>
+      </c>
+      <c r="T63">
+        <v>0.61155700000000002</v>
+      </c>
+      <c r="U63">
+        <v>0.59833899999999995</v>
+      </c>
+      <c r="V63">
+        <v>0.58099699999999999</v>
+      </c>
+      <c r="W63">
+        <v>0.55890499999999999</v>
+      </c>
+      <c r="X63">
+        <v>0.53126300000000004</v>
+      </c>
+      <c r="Y63">
+        <v>0.49707600000000002</v>
+      </c>
+      <c r="Z63">
+        <v>0.455175</v>
+      </c>
+      <c r="AA63">
+        <v>0.40428199999999997</v>
+      </c>
+      <c r="AB63">
+        <v>0.34319499999999997</v>
+      </c>
+      <c r="AC63">
+        <v>0.271144</v>
+      </c>
+      <c r="AD63">
+        <v>0.188359</v>
+      </c>
+      <c r="AE63">
+        <v>9.6710900000000002E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>8.33589E-2</v>
+      </c>
+      <c r="C64">
+        <v>0.162909</v>
+      </c>
+      <c r="D64">
+        <v>0.23580899999999999</v>
+      </c>
+      <c r="E64">
+        <v>0.30051800000000001</v>
+      </c>
+      <c r="F64">
+        <v>0.35660500000000001</v>
+      </c>
+      <c r="G64">
+        <v>0.40437699999999999</v>
+      </c>
+      <c r="H64">
+        <v>0.44452199999999997</v>
+      </c>
+      <c r="I64">
+        <v>0.47787200000000002</v>
+      </c>
+      <c r="J64">
+        <v>0.50524800000000003</v>
+      </c>
+      <c r="K64">
+        <v>0.52739000000000003</v>
+      </c>
+      <c r="L64">
+        <v>0.54492300000000005</v>
+      </c>
+      <c r="M64">
+        <v>0.55835299999999999</v>
+      </c>
+      <c r="N64">
+        <v>0.56806900000000005</v>
+      </c>
+      <c r="O64">
+        <v>0.57435199999999997</v>
+      </c>
+      <c r="P64">
+        <v>0.57738299999999998</v>
+      </c>
+      <c r="Q64">
+        <v>0.57725099999999996</v>
+      </c>
+      <c r="R64">
+        <v>0.57395099999999999</v>
+      </c>
+      <c r="S64">
+        <v>0.56738900000000003</v>
+      </c>
+      <c r="T64">
+        <v>0.55737599999999998</v>
+      </c>
+      <c r="U64">
+        <v>0.543624</v>
+      </c>
+      <c r="V64">
+        <v>0.52573599999999998</v>
+      </c>
+      <c r="W64">
+        <v>0.50320299999999996</v>
+      </c>
+      <c r="X64">
+        <v>0.47540100000000002</v>
+      </c>
+      <c r="Y64">
+        <v>0.44160199999999999</v>
+      </c>
+      <c r="Z64">
+        <v>0.40101900000000001</v>
+      </c>
+      <c r="AA64">
+        <v>0.352885</v>
+      </c>
+      <c r="AB64">
+        <v>0.296624</v>
+      </c>
+      <c r="AC64">
+        <v>0.23208799999999999</v>
+      </c>
+      <c r="AD64">
+        <v>0.15987799999999999</v>
+      </c>
+      <c r="AE64">
+        <v>8.16196E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>7.1062500000000001E-2</v>
+      </c>
+      <c r="C65">
+        <v>0.13955999999999999</v>
+      </c>
+      <c r="D65">
+        <v>0.20341899999999999</v>
+      </c>
+      <c r="E65">
+        <v>0.26130500000000001</v>
+      </c>
+      <c r="F65">
+        <v>0.31259599999999998</v>
+      </c>
+      <c r="G65">
+        <v>0.35721700000000001</v>
+      </c>
+      <c r="H65">
+        <v>0.39544699999999999</v>
+      </c>
+      <c r="I65">
+        <v>0.42775099999999999</v>
+      </c>
+      <c r="J65">
+        <v>0.45465499999999998</v>
+      </c>
+      <c r="K65">
+        <v>0.47667999999999999</v>
+      </c>
+      <c r="L65">
+        <v>0.49429099999999998</v>
+      </c>
+      <c r="M65">
+        <v>0.50788599999999995</v>
+      </c>
+      <c r="N65">
+        <v>0.51777799999999996</v>
+      </c>
+      <c r="O65">
+        <v>0.52420199999999995</v>
+      </c>
+      <c r="P65">
+        <v>0.52730999999999995</v>
+      </c>
+      <c r="Q65">
+        <v>0.52717899999999995</v>
+      </c>
+      <c r="R65">
+        <v>0.52380499999999997</v>
+      </c>
+      <c r="S65">
+        <v>0.51710900000000004</v>
+      </c>
+      <c r="T65">
+        <v>0.506934</v>
+      </c>
+      <c r="U65">
+        <v>0.49304300000000001</v>
+      </c>
+      <c r="V65">
+        <v>0.47511900000000001</v>
+      </c>
+      <c r="W65">
+        <v>0.45277000000000001</v>
+      </c>
+      <c r="X65">
+        <v>0.425535</v>
+      </c>
+      <c r="Y65">
+        <v>0.39291399999999999</v>
+      </c>
+      <c r="Z65">
+        <v>0.354412</v>
+      </c>
+      <c r="AA65">
+        <v>0.30961699999999998</v>
+      </c>
+      <c r="AB65">
+        <v>0.258328</v>
+      </c>
+      <c r="AC65">
+        <v>0.20070499999999999</v>
+      </c>
+      <c r="AD65">
+        <v>0.13744400000000001</v>
+      </c>
+      <c r="AE65">
+        <v>6.9890099999999997E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>6.1331700000000003E-2</v>
+      </c>
+      <c r="C66">
+        <v>0.120848</v>
+      </c>
+      <c r="D66">
+        <v>0.17700399999999999</v>
+      </c>
+      <c r="E66">
+        <v>0.228689</v>
+      </c>
+      <c r="F66">
+        <v>0.27525500000000003</v>
+      </c>
+      <c r="G66">
+        <v>0.31644699999999998</v>
+      </c>
+      <c r="H66">
+        <v>0.3523</v>
+      </c>
+      <c r="I66">
+        <v>0.38302799999999998</v>
+      </c>
+      <c r="J66">
+        <v>0.40894200000000003</v>
+      </c>
+      <c r="K66">
+        <v>0.43038199999999999</v>
+      </c>
+      <c r="L66">
+        <v>0.44767699999999999</v>
+      </c>
+      <c r="M66">
+        <v>0.461121</v>
+      </c>
+      <c r="N66">
+        <v>0.47095700000000001</v>
+      </c>
+      <c r="O66">
+        <v>0.47736800000000001</v>
+      </c>
+      <c r="P66">
+        <v>0.48047800000000002</v>
+      </c>
+      <c r="Q66">
+        <v>0.48035</v>
+      </c>
+      <c r="R66">
+        <v>0.47698099999999999</v>
+      </c>
+      <c r="S66">
+        <v>0.47030899999999998</v>
+      </c>
+      <c r="T66">
+        <v>0.46020800000000001</v>
+      </c>
+      <c r="U66">
+        <v>0.44649499999999998</v>
+      </c>
+      <c r="V66">
+        <v>0.428929</v>
+      </c>
+      <c r="W66">
+        <v>0.40722199999999997</v>
+      </c>
+      <c r="X66">
+        <v>0.38105600000000001</v>
+      </c>
+      <c r="Y66">
+        <v>0.35010799999999997</v>
+      </c>
+      <c r="Z66">
+        <v>0.31409700000000002</v>
+      </c>
+      <c r="AA66">
+        <v>0.272845</v>
+      </c>
+      <c r="AB66">
+        <v>0.22636500000000001</v>
+      </c>
+      <c r="AC66">
+        <v>0.17496</v>
+      </c>
+      <c r="AD66">
+        <v>0.11930499999999999</v>
+      </c>
+      <c r="AE66">
+        <v>6.0496399999999999E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>5.3416499999999999E-2</v>
+      </c>
+      <c r="C67">
+        <v>0.10549500000000001</v>
+      </c>
+      <c r="D67">
+        <v>0.155058</v>
+      </c>
+      <c r="E67">
+        <v>0.20119300000000001</v>
+      </c>
+      <c r="F67">
+        <v>0.24328900000000001</v>
+      </c>
+      <c r="G67">
+        <v>0.28101799999999999</v>
+      </c>
+      <c r="H67">
+        <v>0.31427699999999997</v>
+      </c>
+      <c r="I67">
+        <v>0.34311999999999998</v>
+      </c>
+      <c r="J67">
+        <v>0.367703</v>
+      </c>
+      <c r="K67">
+        <v>0.38822800000000002</v>
+      </c>
+      <c r="L67">
+        <v>0.404914</v>
+      </c>
+      <c r="M67">
+        <v>0.417966</v>
+      </c>
+      <c r="N67">
+        <v>0.42756</v>
+      </c>
+      <c r="O67">
+        <v>0.43383500000000003</v>
+      </c>
+      <c r="P67">
+        <v>0.43688500000000002</v>
+      </c>
+      <c r="Q67">
+        <v>0.43675999999999998</v>
+      </c>
+      <c r="R67">
+        <v>0.43346000000000001</v>
+      </c>
+      <c r="S67">
+        <v>0.42693599999999998</v>
+      </c>
+      <c r="T67">
+        <v>0.41709499999999999</v>
+      </c>
+      <c r="U67">
+        <v>0.40379999999999999</v>
+      </c>
+      <c r="V67">
+        <v>0.38687899999999997</v>
+      </c>
+      <c r="W67">
+        <v>0.36613400000000001</v>
+      </c>
+      <c r="X67">
+        <v>0.34135900000000002</v>
+      </c>
+      <c r="Y67">
+        <v>0.31236599999999998</v>
+      </c>
+      <c r="Z67">
+        <v>0.27902199999999999</v>
+      </c>
+      <c r="AA67">
+        <v>0.24129900000000001</v>
+      </c>
+      <c r="AB67">
+        <v>0.19932900000000001</v>
+      </c>
+      <c r="AC67">
+        <v>0.15346399999999999</v>
+      </c>
+      <c r="AD67">
+        <v>0.10432</v>
+      </c>
+      <c r="AE67">
+        <v>5.2790299999999998E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>4.6838900000000003E-2</v>
+      </c>
+      <c r="C68">
+        <v>9.2659500000000006E-2</v>
+      </c>
+      <c r="D68">
+        <v>0.136541</v>
+      </c>
+      <c r="E68">
+        <v>0.177734</v>
+      </c>
+      <c r="F68">
+        <v>0.21568899999999999</v>
+      </c>
+      <c r="G68">
+        <v>0.25006</v>
+      </c>
+      <c r="H68">
+        <v>0.280669</v>
+      </c>
+      <c r="I68">
+        <v>0.307473</v>
+      </c>
+      <c r="J68">
+        <v>0.33051999999999998</v>
+      </c>
+      <c r="K68">
+        <v>0.34991499999999998</v>
+      </c>
+      <c r="L68">
+        <v>0.365786</v>
+      </c>
+      <c r="M68">
+        <v>0.37826799999999999</v>
+      </c>
+      <c r="N68">
+        <v>0.38748100000000002</v>
+      </c>
+      <c r="O68">
+        <v>0.39352500000000001</v>
+      </c>
+      <c r="P68">
+        <v>0.39646799999999999</v>
+      </c>
+      <c r="Q68">
+        <v>0.396347</v>
+      </c>
+      <c r="R68">
+        <v>0.39316299999999998</v>
+      </c>
+      <c r="S68">
+        <v>0.38688099999999997</v>
+      </c>
+      <c r="T68">
+        <v>0.37743500000000002</v>
+      </c>
+      <c r="U68">
+        <v>0.36473100000000003</v>
+      </c>
+      <c r="V68">
+        <v>0.34865299999999999</v>
+      </c>
+      <c r="W68">
+        <v>0.32907599999999998</v>
+      </c>
+      <c r="X68">
+        <v>0.30587900000000001</v>
+      </c>
+      <c r="Y68">
+        <v>0.278974</v>
+      </c>
+      <c r="Z68">
+        <v>0.24832699999999999</v>
+      </c>
+      <c r="AA68">
+        <v>0.214001</v>
+      </c>
+      <c r="AB68">
+        <v>0.17618800000000001</v>
+      </c>
+      <c r="AC68">
+        <v>0.13524600000000001</v>
+      </c>
+      <c r="AD68">
+        <v>9.1721200000000003E-2</v>
+      </c>
+      <c r="AE68">
+        <v>4.6344799999999998E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>4.12796E-2</v>
+      </c>
+      <c r="C69">
+        <v>8.1762299999999996E-2</v>
+      </c>
+      <c r="D69">
+        <v>0.120714</v>
+      </c>
+      <c r="E69">
+        <v>0.15751299999999999</v>
+      </c>
+      <c r="F69">
+        <v>0.19167500000000001</v>
+      </c>
+      <c r="G69">
+        <v>0.22286300000000001</v>
+      </c>
+      <c r="H69">
+        <v>0.250865</v>
+      </c>
+      <c r="I69">
+        <v>0.27558199999999999</v>
+      </c>
+      <c r="J69">
+        <v>0.29698999999999998</v>
+      </c>
+      <c r="K69">
+        <v>0.31512400000000002</v>
+      </c>
+      <c r="L69">
+        <v>0.33004800000000001</v>
+      </c>
+      <c r="M69">
+        <v>0.341839</v>
+      </c>
+      <c r="N69">
+        <v>0.35057300000000002</v>
+      </c>
+      <c r="O69">
+        <v>0.35631600000000002</v>
+      </c>
+      <c r="P69">
+        <v>0.35911599999999999</v>
+      </c>
+      <c r="Q69">
+        <v>0.35899700000000001</v>
+      </c>
+      <c r="R69">
+        <v>0.35596299999999997</v>
+      </c>
+      <c r="S69">
+        <v>0.34998899999999999</v>
+      </c>
+      <c r="T69">
+        <v>0.341034</v>
+      </c>
+      <c r="U69">
+        <v>0.32903700000000002</v>
+      </c>
+      <c r="V69">
+        <v>0.31392799999999998</v>
+      </c>
+      <c r="W69">
+        <v>0.29563699999999998</v>
+      </c>
+      <c r="X69">
+        <v>0.27410899999999999</v>
+      </c>
+      <c r="Y69">
+        <v>0.24932299999999999</v>
+      </c>
+      <c r="Z69">
+        <v>0.22131200000000001</v>
+      </c>
+      <c r="AA69">
+        <v>0.190191</v>
+      </c>
+      <c r="AB69">
+        <v>0.15617600000000001</v>
+      </c>
+      <c r="AC69">
+        <v>0.119611</v>
+      </c>
+      <c r="AD69">
+        <v>8.0973600000000007E-2</v>
+      </c>
+      <c r="AE69">
+        <v>4.0867899999999999E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>3.6517399999999998E-2</v>
+      </c>
+      <c r="C70">
+        <v>7.2396000000000002E-2</v>
+      </c>
+      <c r="D70">
+        <v>0.107039</v>
+      </c>
+      <c r="E70">
+        <v>0.139927</v>
+      </c>
+      <c r="F70">
+        <v>0.17063700000000001</v>
+      </c>
+      <c r="G70">
+        <v>0.19885</v>
+      </c>
+      <c r="H70">
+        <v>0.22434899999999999</v>
+      </c>
+      <c r="I70">
+        <v>0.246999</v>
+      </c>
+      <c r="J70">
+        <v>0.26673599999999997</v>
+      </c>
+      <c r="K70">
+        <v>0.28354499999999999</v>
+      </c>
+      <c r="L70">
+        <v>0.29744300000000001</v>
+      </c>
+      <c r="M70">
+        <v>0.30846600000000002</v>
+      </c>
+      <c r="N70">
+        <v>0.31665500000000002</v>
+      </c>
+      <c r="O70">
+        <v>0.32205099999999998</v>
+      </c>
+      <c r="P70">
+        <v>0.324681</v>
+      </c>
+      <c r="Q70">
+        <v>0.32456400000000002</v>
+      </c>
+      <c r="R70">
+        <v>0.32170100000000001</v>
+      </c>
+      <c r="S70">
+        <v>0.31608000000000003</v>
+      </c>
+      <c r="T70">
+        <v>0.30767499999999998</v>
+      </c>
+      <c r="U70">
+        <v>0.29645500000000002</v>
+      </c>
+      <c r="V70">
+        <v>0.28238400000000002</v>
+      </c>
+      <c r="W70">
+        <v>0.265434</v>
+      </c>
+      <c r="X70">
+        <v>0.24559700000000001</v>
+      </c>
+      <c r="Y70">
+        <v>0.22289700000000001</v>
+      </c>
+      <c r="Z70">
+        <v>0.197408</v>
+      </c>
+      <c r="AA70">
+        <v>0.16927300000000001</v>
+      </c>
+      <c r="AB70">
+        <v>0.138714</v>
+      </c>
+      <c r="AC70">
+        <v>0.106049</v>
+      </c>
+      <c r="AD70">
+        <v>7.16942E-2</v>
+      </c>
+      <c r="AE70">
+        <v>3.6153100000000001E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>3.2394100000000002E-2</v>
+      </c>
+      <c r="C71">
+        <v>6.4265299999999997E-2</v>
+      </c>
+      <c r="D71">
+        <v>9.5120200000000002E-2</v>
+      </c>
+      <c r="E71">
+        <v>0.12452000000000001</v>
+      </c>
+      <c r="F71">
+        <v>0.15209400000000001</v>
+      </c>
+      <c r="G71">
+        <v>0.17755299999999999</v>
+      </c>
+      <c r="H71">
+        <v>0.20068</v>
+      </c>
+      <c r="I71">
+        <v>0.221329</v>
+      </c>
+      <c r="J71">
+        <v>0.23940900000000001</v>
+      </c>
+      <c r="K71">
+        <v>0.25487500000000002</v>
+      </c>
+      <c r="L71">
+        <v>0.26771299999999998</v>
+      </c>
+      <c r="M71">
+        <v>0.27792600000000001</v>
+      </c>
+      <c r="N71">
+        <v>0.28553299999999998</v>
+      </c>
+      <c r="O71">
+        <v>0.29054999999999997</v>
+      </c>
+      <c r="P71">
+        <v>0.29299399999999998</v>
+      </c>
+      <c r="Q71">
+        <v>0.29287600000000003</v>
+      </c>
+      <c r="R71">
+        <v>0.29019699999999998</v>
+      </c>
+      <c r="S71">
+        <v>0.28495300000000001</v>
+      </c>
+      <c r="T71">
+        <v>0.27713300000000002</v>
+      </c>
+      <c r="U71">
+        <v>0.26672400000000002</v>
+      </c>
+      <c r="V71">
+        <v>0.25371899999999997</v>
+      </c>
+      <c r="W71">
+        <v>0.238119</v>
+      </c>
+      <c r="X71">
+        <v>0.219947</v>
+      </c>
+      <c r="Y71">
+        <v>0.19925899999999999</v>
+      </c>
+      <c r="Z71">
+        <v>0.176152</v>
+      </c>
+      <c r="AA71">
+        <v>0.150779</v>
+      </c>
+      <c r="AB71">
+        <v>0.123358</v>
+      </c>
+      <c r="AC71">
+        <v>9.4178200000000004E-2</v>
+      </c>
+      <c r="AD71">
+        <v>6.3600799999999999E-2</v>
+      </c>
+      <c r="AE71">
+        <v>3.2050200000000001E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>2.87935E-2</v>
+      </c>
+      <c r="C72">
+        <v>5.7150800000000002E-2</v>
+      </c>
+      <c r="D72">
+        <v>8.4656800000000004E-2</v>
+      </c>
+      <c r="E72">
+        <v>0.11093699999999999</v>
+      </c>
+      <c r="F72">
+        <v>0.13566800000000001</v>
+      </c>
+      <c r="G72">
+        <v>0.15858700000000001</v>
+      </c>
+      <c r="H72">
+        <v>0.17949000000000001</v>
+      </c>
+      <c r="I72">
+        <v>0.19822799999999999</v>
+      </c>
+      <c r="J72">
+        <v>0.214697</v>
+      </c>
+      <c r="K72">
+        <v>0.22883500000000001</v>
+      </c>
+      <c r="L72">
+        <v>0.24060599999999999</v>
+      </c>
+      <c r="M72">
+        <v>0.24999499999999999</v>
+      </c>
+      <c r="N72">
+        <v>0.25699899999999998</v>
+      </c>
+      <c r="O72">
+        <v>0.26162200000000002</v>
+      </c>
+      <c r="P72">
+        <v>0.26386999999999999</v>
+      </c>
+      <c r="Q72">
+        <v>0.26374799999999998</v>
+      </c>
+      <c r="R72">
+        <v>0.26125900000000002</v>
+      </c>
+      <c r="S72">
+        <v>0.25640200000000002</v>
+      </c>
+      <c r="T72">
+        <v>0.24917800000000001</v>
+      </c>
+      <c r="U72">
+        <v>0.23959</v>
+      </c>
+      <c r="V72">
+        <v>0.22764799999999999</v>
+      </c>
+      <c r="W72">
+        <v>0.21337500000000001</v>
+      </c>
+      <c r="X72">
+        <v>0.19681499999999999</v>
+      </c>
+      <c r="Y72">
+        <v>0.17804</v>
+      </c>
+      <c r="Z72">
+        <v>0.157161</v>
+      </c>
+      <c r="AA72">
+        <v>0.13433200000000001</v>
+      </c>
+      <c r="AB72">
+        <v>0.10976</v>
+      </c>
+      <c r="AC72">
+        <v>8.3704899999999999E-2</v>
+      </c>
+      <c r="AD72">
+        <v>5.64804E-2</v>
+      </c>
+      <c r="AE72">
+        <v>2.8447099999999999E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>2.5629300000000001E-2</v>
+      </c>
+      <c r="C73">
+        <v>5.0887399999999999E-2</v>
+      </c>
+      <c r="D73">
+        <v>7.5419600000000003E-2</v>
+      </c>
+      <c r="E73">
+        <v>9.8902699999999996E-2</v>
+      </c>
+      <c r="F73">
+        <v>0.12105399999999999</v>
+      </c>
+      <c r="G73">
+        <v>0.14163799999999999</v>
+      </c>
+      <c r="H73">
+        <v>0.160466</v>
+      </c>
+      <c r="I73">
+        <v>0.177394</v>
+      </c>
+      <c r="J73">
+        <v>0.19231699999999999</v>
+      </c>
+      <c r="K73">
+        <v>0.20516200000000001</v>
+      </c>
+      <c r="L73">
+        <v>0.21588099999999999</v>
+      </c>
+      <c r="M73">
+        <v>0.22444800000000001</v>
+      </c>
+      <c r="N73">
+        <v>0.230846</v>
+      </c>
+      <c r="O73">
+        <v>0.235069</v>
+      </c>
+      <c r="P73">
+        <v>0.23711699999999999</v>
+      </c>
+      <c r="Q73">
+        <v>0.236988</v>
+      </c>
+      <c r="R73">
+        <v>0.23468700000000001</v>
+      </c>
+      <c r="S73">
+        <v>0.23021800000000001</v>
+      </c>
+      <c r="T73">
+        <v>0.22358800000000001</v>
+      </c>
+      <c r="U73">
+        <v>0.214811</v>
+      </c>
+      <c r="V73">
+        <v>0.20390900000000001</v>
+      </c>
+      <c r="W73">
+        <v>0.19091900000000001</v>
+      </c>
+      <c r="X73">
+        <v>0.175897</v>
+      </c>
+      <c r="Y73">
+        <v>0.15892600000000001</v>
+      </c>
+      <c r="Z73">
+        <v>0.14011999999999999</v>
+      </c>
+      <c r="AA73">
+        <v>0.119629</v>
+      </c>
+      <c r="AB73">
+        <v>9.7645200000000001E-2</v>
+      </c>
+      <c r="AC73">
+        <v>7.44007E-2</v>
+      </c>
+      <c r="AD73">
+        <v>5.0168999999999998E-2</v>
+      </c>
+      <c r="AE73">
+        <v>2.52578E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>2.28364E-2</v>
+      </c>
+      <c r="C74">
+        <v>4.5349800000000003E-2</v>
+      </c>
+      <c r="D74">
+        <v>6.7231799999999994E-2</v>
+      </c>
+      <c r="E74">
+        <v>8.8200100000000003E-2</v>
+      </c>
+      <c r="F74">
+        <v>0.10800700000000001</v>
+      </c>
+      <c r="G74">
+        <v>0.126445</v>
+      </c>
+      <c r="H74">
+        <v>0.143342</v>
+      </c>
+      <c r="I74">
+        <v>0.15856600000000001</v>
+      </c>
+      <c r="J74">
+        <v>0.172014</v>
+      </c>
+      <c r="K74">
+        <v>0.183613</v>
+      </c>
+      <c r="L74">
+        <v>0.19331000000000001</v>
+      </c>
+      <c r="M74">
+        <v>0.201069</v>
+      </c>
+      <c r="N74">
+        <v>0.206868</v>
+      </c>
+      <c r="O74">
+        <v>0.21069299999999999</v>
+      </c>
+      <c r="P74">
+        <v>0.212538</v>
+      </c>
+      <c r="Q74">
+        <v>0.21240100000000001</v>
+      </c>
+      <c r="R74">
+        <v>0.210285</v>
+      </c>
+      <c r="S74">
+        <v>0.20619499999999999</v>
+      </c>
+      <c r="T74">
+        <v>0.20014599999999999</v>
+      </c>
+      <c r="U74">
+        <v>0.19215599999999999</v>
+      </c>
+      <c r="V74">
+        <v>0.182257</v>
+      </c>
+      <c r="W74">
+        <v>0.17049300000000001</v>
+      </c>
+      <c r="X74">
+        <v>0.15692800000000001</v>
+      </c>
+      <c r="Y74">
+        <v>0.141648</v>
+      </c>
+      <c r="Z74">
+        <v>0.124764</v>
+      </c>
+      <c r="AA74">
+        <v>0.10642</v>
+      </c>
+      <c r="AB74">
+        <v>8.6790699999999998E-2</v>
+      </c>
+      <c r="AC74">
+        <v>6.6083799999999998E-2</v>
+      </c>
+      <c r="AD74">
+        <v>4.4537199999999999E-2</v>
+      </c>
+      <c r="AE74">
+        <v>2.2415000000000001E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>2.0366499999999999E-2</v>
+      </c>
+      <c r="C75">
+        <v>4.0443899999999998E-2</v>
+      </c>
+      <c r="D75">
+        <v>5.9957499999999997E-2</v>
+      </c>
+      <c r="E75">
+        <v>7.8658599999999995E-2</v>
+      </c>
+      <c r="F75">
+        <v>9.6330700000000005E-2</v>
+      </c>
+      <c r="G75">
+        <v>0.112791</v>
+      </c>
+      <c r="H75">
+        <v>0.12789200000000001</v>
+      </c>
+      <c r="I75">
+        <v>0.141513</v>
+      </c>
+      <c r="J75">
+        <v>0.153562</v>
+      </c>
+      <c r="K75">
+        <v>0.163967</v>
+      </c>
+      <c r="L75">
+        <v>0.172676</v>
+      </c>
+      <c r="M75">
+        <v>0.17965</v>
+      </c>
+      <c r="N75">
+        <v>0.184863</v>
+      </c>
+      <c r="O75">
+        <v>0.18829699999999999</v>
+      </c>
+      <c r="P75">
+        <v>0.189941</v>
+      </c>
+      <c r="Q75">
+        <v>0.18979299999999999</v>
+      </c>
+      <c r="R75">
+        <v>0.18785399999999999</v>
+      </c>
+      <c r="S75">
+        <v>0.18413299999999999</v>
+      </c>
+      <c r="T75">
+        <v>0.178644</v>
+      </c>
+      <c r="U75">
+        <v>0.17141100000000001</v>
+      </c>
+      <c r="V75">
+        <v>0.16247</v>
+      </c>
+      <c r="W75">
+        <v>0.15187</v>
+      </c>
+      <c r="X75">
+        <v>0.13967499999999999</v>
+      </c>
+      <c r="Y75">
+        <v>0.125972</v>
+      </c>
+      <c r="Z75">
+        <v>0.11086799999999999</v>
+      </c>
+      <c r="AA75">
+        <v>9.4495800000000005E-2</v>
+      </c>
+      <c r="AB75">
+        <v>7.7013899999999996E-2</v>
+      </c>
+      <c r="AC75">
+        <v>5.8606400000000003E-2</v>
+      </c>
+      <c r="AD75">
+        <v>3.9481000000000002E-2</v>
+      </c>
+      <c r="AE75">
+        <v>1.9865000000000001E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>1.81856E-2</v>
+      </c>
+      <c r="C76">
+        <v>3.6101599999999998E-2</v>
+      </c>
+      <c r="D76">
+        <v>5.3495800000000003E-2</v>
+      </c>
+      <c r="E76">
+        <v>7.0146299999999995E-2</v>
+      </c>
+      <c r="F76">
+        <v>8.5865200000000003E-2</v>
+      </c>
+      <c r="G76">
+        <v>0.100498</v>
+      </c>
+      <c r="H76">
+        <v>0.11392099999999999</v>
+      </c>
+      <c r="I76">
+        <v>0.12603300000000001</v>
+      </c>
+      <c r="J76">
+        <v>0.13675300000000001</v>
+      </c>
+      <c r="K76">
+        <v>0.14601700000000001</v>
+      </c>
+      <c r="L76">
+        <v>0.153777</v>
+      </c>
+      <c r="M76">
+        <v>0.159993</v>
+      </c>
+      <c r="N76">
+        <v>0.16463700000000001</v>
+      </c>
+      <c r="O76">
+        <v>0.16769000000000001</v>
+      </c>
+      <c r="P76">
+        <v>0.16913800000000001</v>
+      </c>
+      <c r="Q76">
+        <v>0.16897699999999999</v>
+      </c>
+      <c r="R76">
+        <v>0.16720699999999999</v>
+      </c>
+      <c r="S76">
+        <v>0.16383700000000001</v>
+      </c>
+      <c r="T76">
+        <v>0.158885</v>
+      </c>
+      <c r="U76">
+        <v>0.15237400000000001</v>
+      </c>
+      <c r="V76">
+        <v>0.144343</v>
+      </c>
+      <c r="W76">
+        <v>0.13483999999999999</v>
+      </c>
+      <c r="X76">
+        <v>0.123931</v>
+      </c>
+      <c r="Y76">
+        <v>0.111697</v>
+      </c>
+      <c r="Z76">
+        <v>9.8240300000000003E-2</v>
+      </c>
+      <c r="AA76">
+        <v>8.3681199999999997E-2</v>
+      </c>
+      <c r="AB76">
+        <v>6.8162600000000004E-2</v>
+      </c>
+      <c r="AC76">
+        <v>5.1846999999999997E-2</v>
+      </c>
+      <c r="AD76">
+        <v>3.4915500000000002E-2</v>
+      </c>
+      <c r="AE76">
+        <v>1.7564099999999999E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>1.6274500000000001E-2</v>
+      </c>
+      <c r="C77">
+        <v>3.2280999999999997E-2</v>
+      </c>
+      <c r="D77">
+        <v>4.7778000000000001E-2</v>
+      </c>
+      <c r="E77">
+        <v>6.2565399999999993E-2</v>
+      </c>
+      <c r="F77">
+        <v>7.6485499999999998E-2</v>
+      </c>
+      <c r="G77">
+        <v>8.9416099999999998E-2</v>
+      </c>
+      <c r="H77">
+        <v>0.101261</v>
+      </c>
+      <c r="I77">
+        <v>0.111944</v>
+      </c>
+      <c r="J77">
+        <v>0.12139900000000001</v>
+      </c>
+      <c r="K77">
+        <v>0.12957299999999999</v>
+      </c>
+      <c r="L77">
+        <v>0.13642199999999999</v>
+      </c>
+      <c r="M77">
+        <v>0.14190800000000001</v>
+      </c>
+      <c r="N77">
+        <v>0.14600399999999999</v>
+      </c>
+      <c r="O77">
+        <v>0.14868700000000001</v>
+      </c>
+      <c r="P77">
+        <v>0.14994399999999999</v>
+      </c>
+      <c r="Q77">
+        <v>0.14976800000000001</v>
+      </c>
+      <c r="R77">
+        <v>0.14815900000000001</v>
+      </c>
+      <c r="S77">
+        <v>0.145125</v>
+      </c>
+      <c r="T77">
+        <v>0.140683</v>
+      </c>
+      <c r="U77">
+        <v>0.13485800000000001</v>
+      </c>
+      <c r="V77">
+        <v>0.12768699999999999</v>
+      </c>
+      <c r="W77">
+        <v>0.119217</v>
+      </c>
+      <c r="X77">
+        <v>0.109512</v>
+      </c>
+      <c r="Y77">
+        <v>9.8646300000000006E-2</v>
+      </c>
+      <c r="Z77">
+        <v>8.67145E-2</v>
+      </c>
+      <c r="AA77">
+        <v>7.3826299999999997E-2</v>
+      </c>
+      <c r="AB77">
+        <v>6.0108300000000003E-2</v>
+      </c>
+      <c r="AC77">
+        <v>4.5703599999999997E-2</v>
+      </c>
+      <c r="AD77">
+        <v>3.07698E-2</v>
+      </c>
+      <c r="AE77">
+        <v>1.5476E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>1.46313E-2</v>
+      </c>
+      <c r="C78">
+        <v>2.89698E-2</v>
+      </c>
+      <c r="D78">
+        <v>4.2769799999999997E-2</v>
+      </c>
+      <c r="E78">
+        <v>5.5851900000000003E-2</v>
+      </c>
+      <c r="F78">
+        <v>6.8095299999999997E-2</v>
+      </c>
+      <c r="G78">
+        <v>7.9419299999999998E-2</v>
+      </c>
+      <c r="H78">
+        <v>8.9764499999999997E-2</v>
+      </c>
+      <c r="I78">
+        <v>9.9081600000000006E-2</v>
+      </c>
+      <c r="J78">
+        <v>0.107325</v>
+      </c>
+      <c r="K78">
+        <v>0.114454</v>
+      </c>
+      <c r="L78">
+        <v>0.12042799999999999</v>
+      </c>
+      <c r="M78">
+        <v>0.12521399999999999</v>
+      </c>
+      <c r="N78">
+        <v>0.12878200000000001</v>
+      </c>
+      <c r="O78">
+        <v>0.13111</v>
+      </c>
+      <c r="P78">
+        <v>0.13218299999999999</v>
+      </c>
+      <c r="Q78">
+        <v>0.131992</v>
+      </c>
+      <c r="R78">
+        <v>0.13053600000000001</v>
+      </c>
+      <c r="S78">
+        <v>0.12782199999999999</v>
+      </c>
+      <c r="T78">
+        <v>0.123865</v>
+      </c>
+      <c r="U78">
+        <v>0.118689</v>
+      </c>
+      <c r="V78">
+        <v>0.112329</v>
+      </c>
+      <c r="W78">
+        <v>0.10483099999999999</v>
+      </c>
+      <c r="X78">
+        <v>9.6251500000000004E-2</v>
+      </c>
+      <c r="Y78">
+        <v>8.6661500000000002E-2</v>
+      </c>
+      <c r="Z78">
+        <v>7.6145299999999999E-2</v>
+      </c>
+      <c r="AA78">
+        <v>6.4800999999999997E-2</v>
+      </c>
+      <c r="AB78">
+        <v>5.2740700000000001E-2</v>
+      </c>
+      <c r="AC78">
+        <v>4.00895E-2</v>
+      </c>
+      <c r="AD78">
+        <v>2.6984000000000001E-2</v>
+      </c>
+      <c r="AE78">
+        <v>1.3569899999999999E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>1.3280800000000001E-2</v>
+      </c>
+      <c r="C79">
+        <v>2.61972E-2</v>
+      </c>
+      <c r="D79">
+        <v>3.8479699999999999E-2</v>
+      </c>
+      <c r="E79">
+        <v>4.9977000000000001E-2</v>
+      </c>
+      <c r="F79">
+        <v>6.0624600000000001E-2</v>
+      </c>
+      <c r="G79">
+        <v>7.0401199999999997E-2</v>
+      </c>
+      <c r="H79">
+        <v>7.92958E-2</v>
+      </c>
+      <c r="I79">
+        <v>8.7292800000000004E-2</v>
+      </c>
+      <c r="J79">
+        <v>9.4367699999999999E-2</v>
+      </c>
+      <c r="K79">
+        <v>0.10048899999999999</v>
+      </c>
+      <c r="L79">
+        <v>0.10562299999999999</v>
+      </c>
+      <c r="M79">
+        <v>0.109737</v>
+      </c>
+      <c r="N79">
+        <v>0.1128</v>
+      </c>
+      <c r="O79">
+        <v>0.114789</v>
+      </c>
+      <c r="P79">
+        <v>0.115686</v>
+      </c>
+      <c r="Q79">
+        <v>0.115481</v>
+      </c>
+      <c r="R79">
+        <v>0.11417099999999999</v>
+      </c>
+      <c r="S79">
+        <v>0.111761</v>
+      </c>
+      <c r="T79">
+        <v>0.108265</v>
+      </c>
+      <c r="U79">
+        <v>0.103704</v>
+      </c>
+      <c r="V79">
+        <v>9.8110299999999998E-2</v>
+      </c>
+      <c r="W79">
+        <v>9.1525499999999996E-2</v>
+      </c>
+      <c r="X79">
+        <v>8.4001900000000004E-2</v>
+      </c>
+      <c r="Y79">
+        <v>7.5603000000000004E-2</v>
+      </c>
+      <c r="Z79">
+        <v>6.6404000000000005E-2</v>
+      </c>
+      <c r="AA79">
+        <v>5.6491699999999999E-2</v>
+      </c>
+      <c r="AB79">
+        <v>4.5963999999999998E-2</v>
+      </c>
+      <c r="AC79">
+        <v>3.4929700000000001E-2</v>
+      </c>
+      <c r="AD79">
+        <v>2.3506599999999999E-2</v>
+      </c>
+      <c r="AE79">
+        <v>1.18199E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>1.22947E-2</v>
+      </c>
+      <c r="C80">
+        <v>2.4058599999999999E-2</v>
+      </c>
+      <c r="D80">
+        <v>3.4974699999999997E-2</v>
+      </c>
+      <c r="E80">
+        <v>4.4951600000000001E-2</v>
+      </c>
+      <c r="F80">
+        <v>5.40251E-2</v>
+      </c>
+      <c r="G80">
+        <v>6.2265000000000001E-2</v>
+      </c>
+      <c r="H80">
+        <v>6.9724700000000001E-2</v>
+      </c>
+      <c r="I80">
+        <v>7.6426099999999997E-2</v>
+      </c>
+      <c r="J80">
+        <v>8.2363199999999998E-2</v>
+      </c>
+      <c r="K80">
+        <v>8.7512000000000006E-2</v>
+      </c>
+      <c r="L80">
+        <v>9.1839299999999999E-2</v>
+      </c>
+      <c r="M80">
+        <v>9.5310199999999998E-2</v>
+      </c>
+      <c r="N80">
+        <v>9.7892699999999999E-2</v>
+      </c>
+      <c r="O80">
+        <v>9.9559900000000007E-2</v>
+      </c>
+      <c r="P80">
+        <v>0.10029200000000001</v>
+      </c>
+      <c r="Q80">
+        <v>0.100075</v>
+      </c>
+      <c r="R80">
+        <v>9.8906400000000005E-2</v>
+      </c>
+      <c r="S80">
+        <v>9.6787200000000004E-2</v>
+      </c>
+      <c r="T80">
+        <v>9.3729099999999996E-2</v>
+      </c>
+      <c r="U80">
+        <v>8.9751399999999995E-2</v>
+      </c>
+      <c r="V80">
+        <v>8.4882299999999994E-2</v>
+      </c>
+      <c r="W80">
+        <v>7.9158900000000004E-2</v>
+      </c>
+      <c r="X80">
+        <v>7.26276E-2</v>
+      </c>
+      <c r="Y80">
+        <v>6.5344700000000006E-2</v>
+      </c>
+      <c r="Z80">
+        <v>5.7376200000000002E-2</v>
+      </c>
+      <c r="AA80">
+        <v>4.8797699999999999E-2</v>
+      </c>
+      <c r="AB80">
+        <v>3.9694E-2</v>
+      </c>
+      <c r="AC80">
+        <v>3.0158799999999999E-2</v>
+      </c>
+      <c r="AD80">
+        <v>2.0292899999999999E-2</v>
+      </c>
+      <c r="AE80">
+        <v>1.0203E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>1.18396E-2</v>
+      </c>
+      <c r="C81">
+        <v>2.2767599999999999E-2</v>
+      </c>
+      <c r="D81">
+        <v>3.2409100000000003E-2</v>
+      </c>
+      <c r="E81">
+        <v>4.0829799999999999E-2</v>
+      </c>
+      <c r="F81">
+        <v>4.8259099999999999E-2</v>
+      </c>
+      <c r="G81">
+        <v>5.4908999999999999E-2</v>
+      </c>
+      <c r="H81">
+        <v>6.0911899999999998E-2</v>
+      </c>
+      <c r="I81">
+        <v>6.6323599999999996E-2</v>
+      </c>
+      <c r="J81">
+        <v>7.1147199999999994E-2</v>
+      </c>
+      <c r="K81">
+        <v>7.5356099999999995E-2</v>
+      </c>
+      <c r="L81">
+        <v>7.8911400000000007E-2</v>
+      </c>
+      <c r="M81">
+        <v>8.17721E-2</v>
+      </c>
+      <c r="N81">
+        <v>8.3900500000000003E-2</v>
+      </c>
+      <c r="O81">
+        <v>8.5265900000000006E-2</v>
+      </c>
+      <c r="P81">
+        <v>8.5845099999999994E-2</v>
+      </c>
+      <c r="Q81">
+        <v>8.5622699999999996E-2</v>
+      </c>
+      <c r="R81">
+        <v>8.4591399999999997E-2</v>
+      </c>
+      <c r="S81">
+        <v>8.2752000000000006E-2</v>
+      </c>
+      <c r="T81">
+        <v>8.0112900000000001E-2</v>
+      </c>
+      <c r="U81">
+        <v>7.6690499999999995E-2</v>
+      </c>
+      <c r="V81">
+        <v>7.2508799999999998E-2</v>
+      </c>
+      <c r="W81">
+        <v>6.7600099999999996E-2</v>
+      </c>
+      <c r="X81">
+        <v>6.2004999999999998E-2</v>
+      </c>
+      <c r="Y81">
+        <v>5.5772099999999998E-2</v>
+      </c>
+      <c r="Z81">
+        <v>4.8958399999999999E-2</v>
+      </c>
+      <c r="AA81">
+        <v>4.1628699999999998E-2</v>
+      </c>
+      <c r="AB81">
+        <v>3.38556E-2</v>
+      </c>
+      <c r="AC81">
+        <v>2.5718600000000001E-2</v>
+      </c>
+      <c r="AD81">
+        <v>1.7303099999999998E-2</v>
+      </c>
+      <c r="AE81">
+        <v>8.6990799999999997E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>1.2296E-2</v>
+      </c>
+      <c r="C82">
+        <v>2.27633E-2</v>
+      </c>
+      <c r="D82">
+        <v>3.10642E-2</v>
+      </c>
+      <c r="E82">
+        <v>3.7699299999999998E-2</v>
+      </c>
+      <c r="F82">
+        <v>4.3272600000000001E-2</v>
+      </c>
+      <c r="G82">
+        <v>4.8200100000000003E-2</v>
+      </c>
+      <c r="H82">
+        <v>5.2690300000000002E-2</v>
+      </c>
+      <c r="I82">
+        <v>5.68093E-2</v>
+      </c>
+      <c r="J82">
+        <v>6.0545700000000001E-2</v>
+      </c>
+      <c r="K82">
+        <v>6.3853900000000005E-2</v>
+      </c>
+      <c r="L82">
+        <v>6.6678299999999996E-2</v>
+      </c>
+      <c r="M82">
+        <v>6.8965899999999997E-2</v>
+      </c>
+      <c r="N82">
+        <v>7.0671399999999995E-2</v>
+      </c>
+      <c r="O82">
+        <v>7.1758299999999997E-2</v>
+      </c>
+      <c r="P82">
+        <v>7.22E-2</v>
+      </c>
+      <c r="Q82">
+        <v>7.1978600000000004E-2</v>
+      </c>
+      <c r="R82">
+        <v>7.1084700000000001E-2</v>
+      </c>
+      <c r="S82">
+        <v>6.9516599999999998E-2</v>
+      </c>
+      <c r="T82">
+        <v>6.7280199999999998E-2</v>
+      </c>
+      <c r="U82">
+        <v>6.4388699999999993E-2</v>
+      </c>
+      <c r="V82">
+        <v>6.0862100000000002E-2</v>
+      </c>
+      <c r="W82">
+        <v>5.6727899999999998E-2</v>
+      </c>
+      <c r="X82">
+        <v>5.2020200000000003E-2</v>
+      </c>
+      <c r="Y82">
+        <v>4.67804E-2</v>
+      </c>
+      <c r="Z82">
+        <v>4.10564E-2</v>
+      </c>
+      <c r="AA82">
+        <v>3.4903099999999999E-2</v>
+      </c>
+      <c r="AB82">
+        <v>2.8381199999999999E-2</v>
+      </c>
+      <c r="AC82">
+        <v>2.1557099999999999E-2</v>
+      </c>
+      <c r="AD82">
+        <v>1.45018E-2</v>
+      </c>
+      <c r="AE82">
+        <v>7.2902899999999996E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>1.45811E-2</v>
+      </c>
+      <c r="C83">
+        <v>2.4925599999999999E-2</v>
+      </c>
+      <c r="D83">
+        <v>3.1385000000000003E-2</v>
+      </c>
+      <c r="E83">
+        <v>3.5630500000000002E-2</v>
+      </c>
+      <c r="F83">
+        <v>3.8932000000000001E-2</v>
+      </c>
+      <c r="G83">
+        <v>4.19285E-2</v>
+      </c>
+      <c r="H83">
+        <v>4.4839799999999999E-2</v>
+      </c>
+      <c r="I83">
+        <v>4.7677700000000003E-2</v>
+      </c>
+      <c r="J83">
+        <v>5.0372599999999997E-2</v>
+      </c>
+      <c r="K83">
+        <v>5.2835300000000002E-2</v>
+      </c>
+      <c r="L83">
+        <v>5.49819E-2</v>
+      </c>
+      <c r="M83">
+        <v>5.6742099999999997E-2</v>
+      </c>
+      <c r="N83">
+        <v>5.80607E-2</v>
+      </c>
+      <c r="O83">
+        <v>5.8895999999999997E-2</v>
+      </c>
+      <c r="P83">
+        <v>5.9218100000000003E-2</v>
+      </c>
+      <c r="Q83">
+        <v>5.9007200000000003E-2</v>
+      </c>
+      <c r="R83">
+        <v>5.8252199999999997E-2</v>
+      </c>
+      <c r="S83">
+        <v>5.69495E-2</v>
+      </c>
+      <c r="T83">
+        <v>5.5102699999999998E-2</v>
+      </c>
+      <c r="U83">
+        <v>5.2721900000000002E-2</v>
+      </c>
+      <c r="V83">
+        <v>4.9823199999999998E-2</v>
+      </c>
+      <c r="W83">
+        <v>4.6429100000000001E-2</v>
+      </c>
+      <c r="X83">
+        <v>4.2567599999999997E-2</v>
+      </c>
+      <c r="Y83">
+        <v>3.82727E-2</v>
+      </c>
+      <c r="Z83">
+        <v>3.3584000000000003E-2</v>
+      </c>
+      <c r="AA83">
+        <v>2.8546200000000001E-2</v>
+      </c>
+      <c r="AB83">
+        <v>2.3209E-2</v>
+      </c>
+      <c r="AC83">
+        <v>1.7626599999999999E-2</v>
+      </c>
+      <c r="AD83">
+        <v>1.1856800000000001E-2</v>
+      </c>
+      <c r="AE83">
+        <v>5.96029E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>2.1102900000000001E-2</v>
+      </c>
+      <c r="C84">
+        <v>3.0972800000000002E-2</v>
+      </c>
+      <c r="D84">
+        <v>3.3919699999999997E-2</v>
+      </c>
+      <c r="E84">
+        <v>3.4505800000000003E-2</v>
+      </c>
+      <c r="F84">
+        <v>3.4896400000000001E-2</v>
+      </c>
+      <c r="G84">
+        <v>3.5742000000000003E-2</v>
+      </c>
+      <c r="H84">
+        <v>3.7062699999999997E-2</v>
+      </c>
+      <c r="I84">
+        <v>3.8688899999999998E-2</v>
+      </c>
+      <c r="J84">
+        <v>4.0431799999999997E-2</v>
+      </c>
+      <c r="K84">
+        <v>4.2132999999999997E-2</v>
+      </c>
+      <c r="L84">
+        <v>4.3671799999999997E-2</v>
+      </c>
+      <c r="M84">
+        <v>4.4959800000000001E-2</v>
+      </c>
+      <c r="N84">
+        <v>4.59332E-2</v>
+      </c>
+      <c r="O84">
+        <v>4.6546799999999999E-2</v>
+      </c>
+      <c r="P84">
+        <v>4.6769199999999997E-2</v>
+      </c>
+      <c r="Q84">
+        <v>4.65799E-2</v>
+      </c>
+      <c r="R84">
+        <v>4.59672E-2</v>
+      </c>
+      <c r="S84">
+        <v>4.4926500000000001E-2</v>
+      </c>
+      <c r="T84">
+        <v>4.3459299999999999E-2</v>
+      </c>
+      <c r="U84">
+        <v>4.1572900000000003E-2</v>
+      </c>
+      <c r="V84">
+        <v>3.92799E-2</v>
+      </c>
+      <c r="W84">
+        <v>3.6597600000000001E-2</v>
+      </c>
+      <c r="X84">
+        <v>3.3548300000000003E-2</v>
+      </c>
+      <c r="Y84">
+        <v>3.0158899999999999E-2</v>
+      </c>
+      <c r="Z84">
+        <v>2.6460600000000001E-2</v>
+      </c>
+      <c r="AA84">
+        <v>2.2488600000000001E-2</v>
+      </c>
+      <c r="AB84">
+        <v>1.8282E-2</v>
+      </c>
+      <c r="AC84">
+        <v>1.38835E-2</v>
+      </c>
+      <c r="AD84">
+        <v>9.3383500000000005E-3</v>
+      </c>
+      <c r="AE84">
+        <v>4.6941300000000004E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>3.8857700000000002E-2</v>
+      </c>
+      <c r="C85">
+        <v>4.3943200000000002E-2</v>
+      </c>
+      <c r="D85">
+        <v>3.8815099999999998E-2</v>
+      </c>
+      <c r="E85">
+        <v>3.3576799999999997E-2</v>
+      </c>
+      <c r="F85">
+        <v>3.0405499999999999E-2</v>
+      </c>
+      <c r="G85">
+        <v>2.9080700000000001E-2</v>
+      </c>
+      <c r="H85">
+        <v>2.8980100000000002E-2</v>
+      </c>
+      <c r="I85">
+        <v>2.9583600000000002E-2</v>
+      </c>
+      <c r="J85">
+        <v>3.05326E-2</v>
+      </c>
+      <c r="K85">
+        <v>3.15929E-2</v>
+      </c>
+      <c r="L85">
+        <v>3.2612599999999999E-2</v>
+      </c>
+      <c r="M85">
+        <v>3.34922E-2</v>
+      </c>
+      <c r="N85">
+        <v>3.41657E-2</v>
+      </c>
+      <c r="O85">
+        <v>3.45887E-2</v>
+      </c>
+      <c r="P85">
+        <v>3.4731900000000003E-2</v>
+      </c>
+      <c r="Q85">
+        <v>3.4576099999999999E-2</v>
+      </c>
+      <c r="R85">
+        <v>3.4110399999999999E-2</v>
+      </c>
+      <c r="S85">
+        <v>3.3329900000000003E-2</v>
+      </c>
+      <c r="T85">
+        <v>3.2235E-2</v>
+      </c>
+      <c r="U85">
+        <v>3.08306E-2</v>
+      </c>
+      <c r="V85">
+        <v>2.9125700000000001E-2</v>
+      </c>
+      <c r="W85">
+        <v>2.71331E-2</v>
+      </c>
+      <c r="X85">
+        <v>2.48693E-2</v>
+      </c>
+      <c r="Y85">
+        <v>2.2354099999999998E-2</v>
+      </c>
+      <c r="Z85">
+        <v>1.9610800000000001E-2</v>
+      </c>
+      <c r="AA85">
+        <v>1.66655E-2</v>
+      </c>
+      <c r="AB85">
+        <v>1.3547099999999999E-2</v>
+      </c>
+      <c r="AC85">
+        <v>1.02871E-2</v>
+      </c>
+      <c r="AD85">
+        <v>6.9189999999999998E-3</v>
+      </c>
+      <c r="AE85">
+        <v>3.47789E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>9.0384699999999998E-2</v>
+      </c>
+      <c r="C86">
+        <v>6.7127199999999998E-2</v>
+      </c>
+      <c r="D86">
+        <v>4.3820699999999997E-2</v>
+      </c>
+      <c r="E86">
+        <v>3.0580900000000001E-2</v>
+      </c>
+      <c r="F86">
+        <v>2.4068099999999999E-2</v>
+      </c>
+      <c r="G86">
+        <v>2.1195100000000001E-2</v>
+      </c>
+      <c r="H86">
+        <v>2.01935E-2</v>
+      </c>
+      <c r="I86">
+        <v>2.0132799999999999E-2</v>
+      </c>
+      <c r="J86">
+        <v>2.0522200000000001E-2</v>
+      </c>
+      <c r="K86">
+        <v>2.1093299999999999E-2</v>
+      </c>
+      <c r="L86">
+        <v>2.1693299999999999E-2</v>
+      </c>
+      <c r="M86">
+        <v>2.2230699999999999E-2</v>
+      </c>
+      <c r="N86">
+        <v>2.2648600000000001E-2</v>
+      </c>
+      <c r="O86">
+        <v>2.29106E-2</v>
+      </c>
+      <c r="P86">
+        <v>2.2993400000000001E-2</v>
+      </c>
+      <c r="Q86">
+        <v>2.2882300000000001E-2</v>
+      </c>
+      <c r="R86">
+        <v>2.2568399999999999E-2</v>
+      </c>
+      <c r="S86">
+        <v>2.2047799999999999E-2</v>
+      </c>
+      <c r="T86">
+        <v>2.13203E-2</v>
+      </c>
+      <c r="U86">
+        <v>2.0388799999999999E-2</v>
+      </c>
+      <c r="V86">
+        <v>1.9259200000000001E-2</v>
+      </c>
+      <c r="W86">
+        <v>1.7939799999999999E-2</v>
+      </c>
+      <c r="X86">
+        <v>1.6441600000000001E-2</v>
+      </c>
+      <c r="Y86">
+        <v>1.4777500000000001E-2</v>
+      </c>
+      <c r="Z86">
+        <v>1.29631E-2</v>
+      </c>
+      <c r="AA86">
+        <v>1.10154E-2</v>
+      </c>
+      <c r="AB86">
+        <v>8.9537599999999998E-3</v>
+      </c>
+      <c r="AC86">
+        <v>6.7988199999999997E-3</v>
+      </c>
+      <c r="AD86">
+        <v>4.5726600000000001E-3</v>
+      </c>
+      <c r="AE86">
+        <v>2.2984400000000001E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>0.255554</v>
+      </c>
+      <c r="C87">
+        <v>9.0360200000000002E-2</v>
+      </c>
+      <c r="D87">
+        <v>3.8759700000000001E-2</v>
+      </c>
+      <c r="E87">
+        <v>2.0857899999999999E-2</v>
+      </c>
+      <c r="F87">
+        <v>1.4090999999999999E-2</v>
+      </c>
+      <c r="G87">
+        <v>1.1438E-2</v>
+      </c>
+      <c r="H87">
+        <v>1.04659E-2</v>
+      </c>
+      <c r="I87">
+        <v>1.0232099999999999E-2</v>
+      </c>
+      <c r="J87">
+        <v>1.03298E-2</v>
+      </c>
+      <c r="K87">
+        <v>1.0565E-2</v>
+      </c>
+      <c r="L87">
+        <v>1.0836699999999999E-2</v>
+      </c>
+      <c r="M87">
+        <v>1.10887E-2</v>
+      </c>
+      <c r="N87">
+        <v>1.1287200000000001E-2</v>
+      </c>
+      <c r="O87">
+        <v>1.14117E-2</v>
+      </c>
+      <c r="P87">
+        <v>1.14491E-2</v>
+      </c>
+      <c r="Q87">
+        <v>1.1391099999999999E-2</v>
+      </c>
+      <c r="R87">
+        <v>1.1233E-2</v>
+      </c>
+      <c r="S87">
+        <v>1.0972600000000001E-2</v>
+      </c>
+      <c r="T87">
+        <v>1.0609499999999999E-2</v>
+      </c>
+      <c r="U87">
+        <v>1.01452E-2</v>
+      </c>
+      <c r="V87">
+        <v>9.5824800000000009E-3</v>
+      </c>
+      <c r="W87">
+        <v>8.9254799999999995E-3</v>
+      </c>
+      <c r="X87">
+        <v>8.1796100000000004E-3</v>
+      </c>
+      <c r="Y87">
+        <v>7.3514000000000001E-3</v>
+      </c>
+      <c r="Z87">
+        <v>6.4484599999999996E-3</v>
+      </c>
+      <c r="AA87">
+        <v>5.4793999999999997E-3</v>
+      </c>
+      <c r="AB87">
+        <v>4.4537200000000004E-3</v>
+      </c>
+      <c r="AC87">
+        <v>3.3817399999999998E-3</v>
+      </c>
+      <c r="AD87">
+        <v>2.2744000000000002E-3</v>
+      </c>
+      <c r="AE87">
+        <v>1.14321E-3</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -377,8 +377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58:AE88"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,455 +546,924 @@
         <v>0.10637405668014797</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
       <c r="B19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f>PI()</f>
         <v>3.1415926535897931</v>
       </c>
       <c r="B20" s="1">
         <f>$A20/$B$19*(COLUMN()-1)</f>
-        <v>0.62831853071795862</v>
+        <v>0.28559933214452665</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" ref="C20:E20" si="2">$A20/$B$19*(COLUMN()-1)</f>
-        <v>1.2566370614359172</v>
+        <v>0.5711986642890533</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="2"/>
-        <v>1.8849555921538759</v>
+        <v>0.8567979964335799</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="2"/>
-        <v>2.5132741228718345</v>
+        <v>1.1423973285781066</v>
       </c>
       <c r="F20" s="1">
         <f>$A20/$B$19*(COLUMN()-1)</f>
+        <v>1.4279966607226333</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" ref="G20:K20" si="3">$A20/$B$19*(COLUMN()-1)</f>
+        <v>1.7135959928671598</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9991953250116865</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="3"/>
+        <v>2.2847946571562132</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="3"/>
+        <v>2.5703939893007397</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="3"/>
+        <v>2.8559933214452666</v>
+      </c>
+      <c r="L20" s="1">
+        <f>$A20/$B$19*(COLUMN()-1)</f>
         <v>3.1415926535897931</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <f>$A$12/$B$19*(ROW()-20)</f>
-        <v>0.62831853071795862</v>
+        <f>$A$20/$B$19*(ROW()-20)</f>
+        <v>0.28559933214452665</v>
       </c>
       <c r="B21">
-        <f>1/SINH(PI())*(SIN(B$12)*SINH((PI() - $A21))+SIN($A21)*SINH(PI()-B$12))</f>
-        <v>0.64154214767178486</v>
+        <f>1/SINH(PI())*(SIN(B$20)*SINH((PI() - $A21))+SIN($A21)*SINH(PI()-B$20))</f>
+        <v>0.42286953464652399</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:E24" si="3">1/SINH(PI())*(SIN(C$12)*SINH((PI() - $A21))+SIN($A21)*SINH(PI()-C$12))</f>
-        <v>0.64810625626458573</v>
+        <f t="shared" ref="C21:L31" si="4">1/SINH(PI())*(SIN(C$20)*SINH((PI() - $A21))+SIN($A21)*SINH(PI()-C$20))</f>
+        <v>0.5642409653585394</v>
       </c>
       <c r="D21">
-        <f t="shared" si="3"/>
-        <v>0.4196709340957141</v>
+        <f t="shared" si="4"/>
+        <v>0.68575825961500125</v>
       </c>
       <c r="E21">
-        <f t="shared" si="3"/>
-        <v>0.58778525229247314</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.7710647699636789</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="4"/>
+        <v>0.80832612151313366</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>0.79078464283244532</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="4"/>
+        <v>0.71699977648597435</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
+        <v>0.59072977625153245</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>0.42044497565216388</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>0.21849709215907187</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="4"/>
+        <v>9.1944992585949339E-17</v>
+      </c>
+      <c r="N21">
+        <v>0.49107000000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.67918299999999998</v>
+      </c>
+      <c r="P21">
+        <v>0.76129899999999995</v>
+      </c>
+      <c r="Q21">
+        <v>0.79911799999999999</v>
+      </c>
+      <c r="R21">
+        <v>0.813697</v>
+      </c>
+      <c r="S21">
+        <v>0.81157900000000005</v>
+      </c>
+      <c r="T21">
+        <v>0.79147199999999995</v>
+      </c>
+      <c r="U21">
+        <v>0.74254799999999999</v>
+      </c>
+      <c r="V21">
+        <v>0.63124599999999997</v>
+      </c>
+      <c r="W21">
+        <v>0.35211300000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f t="shared" ref="A22:A25" si="4">$A$12/$B$19*(ROW()-20)</f>
-        <v>1.2566370614359172</v>
+        <f t="shared" ref="A22:A31" si="5">$A$20/$B$19*(ROW()-20)</f>
+        <v>0.5711986642890533</v>
       </c>
       <c r="B22">
-        <f t="shared" ref="B22:B24" si="5">1/SINH(PI())*(SIN(B$12)*SINH((PI() - $A22))+SIN($A22)*SINH(PI()-B$12))</f>
-        <v>0.62750911738111403</v>
+        <f t="shared" ref="B22:B31" si="6">1/SINH(PI())*(SIN(B$20)*SINH((PI() - $A22))+SIN($A22)*SINH(PI()-B$20))</f>
+        <v>0.5642409653585394</v>
       </c>
       <c r="C22">
-        <f t="shared" si="3"/>
-        <v>0.46808385141552611</v>
+        <f t="shared" si="4"/>
+        <v>0.60832091755873841</v>
       </c>
       <c r="D22">
-        <f t="shared" si="3"/>
-        <v>0.26851395268984429</v>
+        <f t="shared" si="4"/>
+        <v>0.65273814306849831</v>
       </c>
       <c r="E22">
-        <f t="shared" si="3"/>
-        <v>0.95105651629515353</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.68139771117910863</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="4"/>
+        <v>0.68252995704286146</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="4"/>
+        <v>0.64886810596100308</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="4"/>
+        <v>0.57764774845836619</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="4"/>
+        <v>0.4703798189075174</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>0.33237843404431849</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>0.17205312022425279</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="4"/>
+        <v>6.8925930874326932E-17</v>
+      </c>
+      <c r="N22">
+        <v>0.28509600000000002</v>
+      </c>
+      <c r="O22">
+        <v>0.464362</v>
+      </c>
+      <c r="P22">
+        <v>0.56689500000000004</v>
+      </c>
+      <c r="Q22">
+        <v>0.621475</v>
+      </c>
+      <c r="R22">
+        <v>0.644092</v>
+      </c>
+      <c r="S22">
+        <v>0.64114800000000005</v>
+      </c>
+      <c r="T22">
+        <v>0.61175900000000005</v>
+      </c>
+      <c r="U22">
+        <v>0.54747599999999996</v>
+      </c>
+      <c r="V22">
+        <v>0.43032100000000001</v>
+      </c>
+      <c r="W22">
+        <v>0.236905</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <f t="shared" si="4"/>
-        <v>1.8849555921538759</v>
+        <f t="shared" si="5"/>
+        <v>0.8567979964335799</v>
       </c>
       <c r="B23">
+        <f t="shared" si="6"/>
+        <v>0.68575825961500125</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="4"/>
+        <v>0.65273814306849831</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="4"/>
+        <v>0.63619948330872078</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="4"/>
+        <v>0.6200135536607686</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="4"/>
+        <v>0.59228472404695565</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="4"/>
+        <v>0.54522958354384288</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="4"/>
+        <v>0.47498382665183653</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="4"/>
+        <v>0.38128490524703751</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>0.26700438466723336</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>0.13752773861573614</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="4"/>
+        <v>5.1567267811915372E-17</v>
+      </c>
+      <c r="N23">
+        <v>0.18495300000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.32627400000000001</v>
+      </c>
+      <c r="P23">
+        <v>0.42044399999999998</v>
+      </c>
+      <c r="Q23">
+        <v>0.47579399999999999</v>
+      </c>
+      <c r="R23">
+        <v>0.50004800000000005</v>
+      </c>
+      <c r="S23">
+        <v>0.49716300000000002</v>
+      </c>
+      <c r="T23">
+        <v>0.46693800000000002</v>
+      </c>
+      <c r="U23">
+        <v>0.40527800000000003</v>
+      </c>
+      <c r="V23">
+        <v>0.30565500000000001</v>
+      </c>
+      <c r="W23">
+        <v>0.165187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <f t="shared" si="5"/>
-        <v>0.52938351264245631</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="3"/>
-        <v>0.32931329037805462</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="3"/>
-        <v>0.17038834795118649</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="3"/>
-        <v>0.95105651629515375</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <f t="shared" si="4"/>
-        <v>2.5132741228718345</v>
+        <v>1.1423973285781066</v>
       </c>
       <c r="B24">
+        <f t="shared" si="6"/>
+        <v>0.7710647699636789</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="4"/>
+        <v>0.68139771117910863</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="4"/>
+        <v>0.6200135536607686</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="4"/>
+        <v>0.57085980829858129</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="4"/>
+        <v>0.52202256656348067</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="4"/>
+        <v>0.46538626427497964</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="4"/>
+        <v>0.39629976295872549</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="4"/>
+        <v>0.31319438477757067</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>0.21712253294967693</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>0.11120594945834542</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>3.8443459315316838E-17</v>
+      </c>
+      <c r="N24">
+        <v>0.128441</v>
+      </c>
+      <c r="O24">
+        <v>0.23533799999999999</v>
+      </c>
+      <c r="P24">
+        <v>0.31281300000000001</v>
+      </c>
+      <c r="Q24">
+        <v>0.36120999999999998</v>
+      </c>
+      <c r="R24">
+        <v>0.38314399999999998</v>
+      </c>
+      <c r="S24">
+        <v>0.38051699999999999</v>
+      </c>
+      <c r="T24">
+        <v>0.35355399999999998</v>
+      </c>
+      <c r="U24">
+        <v>0.30104199999999998</v>
+      </c>
+      <c r="V24">
+        <v>0.221834</v>
+      </c>
+      <c r="W24">
+        <v>0.118187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <f t="shared" si="5"/>
-        <v>0.30713556422357069</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="3"/>
-        <v>0.1751839306052709</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="3"/>
-        <v>8.5264350647499751E-2</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="3"/>
-        <v>0.58778525229247325</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <f t="shared" si="4"/>
+        <v>1.4279966607226333</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="6"/>
+        <v>0.80832612151313366</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="4"/>
+        <v>0.68252995704286146</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="4"/>
+        <v>0.59228472404695565</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="4"/>
+        <v>0.52202256656348067</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>0.46013832291169493</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>0.39850919522016087</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="4"/>
+        <v>0.33207401961757338</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>0.25841762868130247</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>0.1773261727746101</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>9.0296838807564242E-2</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="4"/>
+        <v>2.8476739920295631E-17</v>
+      </c>
+      <c r="N25">
+        <v>9.3472899999999998E-2</v>
+      </c>
+      <c r="O25">
+        <v>0.173822</v>
+      </c>
+      <c r="P25">
+        <v>0.234262</v>
+      </c>
+      <c r="Q25">
+        <v>0.27308700000000002</v>
+      </c>
+      <c r="R25">
+        <v>0.29079899999999997</v>
+      </c>
+      <c r="S25">
+        <v>0.28820899999999999</v>
+      </c>
+      <c r="T25">
+        <v>0.26571899999999998</v>
+      </c>
+      <c r="U25">
+        <v>0.22350300000000001</v>
+      </c>
+      <c r="V25">
+        <v>0.16245200000000001</v>
+      </c>
+      <c r="W25">
+        <v>8.5728399999999996E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <f t="shared" si="5"/>
+        <v>1.7135959928671598</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="6"/>
+        <v>0.79078464283244532</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="4"/>
+        <v>0.64886810596100308</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="4"/>
+        <v>0.54522958354384288</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="4"/>
+        <v>0.46538626427497964</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="4"/>
+        <v>0.39850919522016087</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="4"/>
+        <v>0.33688006752862676</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="4"/>
+        <v>0.27543771732907218</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="4"/>
+        <v>0.21136248817818959</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>0.14366432169275162</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>7.2755360126875626E-2</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="4"/>
+        <v>2.0848613535685378E-17</v>
+      </c>
+      <c r="N26">
+        <v>7.1628300000000006E-2</v>
+      </c>
+      <c r="O26">
+        <v>0.132218</v>
+      </c>
+      <c r="P26">
+        <v>0.17732400000000001</v>
+      </c>
+      <c r="Q26">
+        <v>0.20607800000000001</v>
+      </c>
+      <c r="R26">
+        <v>0.21875800000000001</v>
+      </c>
+      <c r="S26">
+        <v>0.21580099999999999</v>
+      </c>
+      <c r="T26">
+        <v>0.19760900000000001</v>
+      </c>
+      <c r="U26">
+        <v>0.164798</v>
+      </c>
+      <c r="V26">
+        <v>0.118744</v>
+      </c>
+      <c r="W26">
+        <v>6.2273799999999997E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <f t="shared" si="5"/>
+        <v>1.9991953250116865</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="6"/>
+        <v>0.71699977648597435</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="4"/>
+        <v>0.57764774845836619</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="4"/>
+        <v>0.47498382665183653</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="4"/>
+        <v>0.39629976295872549</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="4"/>
+        <v>0.33207401961757338</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="4"/>
+        <v>0.27543771732907218</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="4"/>
+        <v>0.22173971761886965</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="4"/>
+        <v>0.16816465776863848</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>0.11337257022893446</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="4"/>
+        <v>5.7140955980640763E-2</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="4"/>
+        <v>1.4932636155061474E-17</v>
+      </c>
+      <c r="N27">
+        <v>6.0822599999999997E-2</v>
+      </c>
+      <c r="O27">
+        <v>0.106096</v>
+      </c>
+      <c r="P27">
+        <v>0.136738</v>
+      </c>
+      <c r="Q27">
+        <v>0.155143</v>
+      </c>
+      <c r="R27">
+        <v>0.162353</v>
+      </c>
+      <c r="S27">
+        <v>0.15862599999999999</v>
+      </c>
+      <c r="T27">
+        <v>0.144121</v>
+      </c>
+      <c r="U27">
+        <v>0.119334</v>
+      </c>
+      <c r="V27">
+        <v>8.5451899999999997E-2</v>
+      </c>
+      <c r="W27">
+        <v>4.4623099999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <f t="shared" si="5"/>
+        <v>2.2847946571562132</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="6"/>
+        <v>0.59072977625153245</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="4"/>
+        <v>0.4703798189075174</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="4"/>
+        <v>0.38128490524703751</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="4"/>
+        <v>0.31319438477757067</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>0.25841762868130247</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="4"/>
+        <v>0.21136248817818959</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="4"/>
+        <v>0.16816465776863848</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="4"/>
+        <v>0.12637032718535413</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="4"/>
+        <v>8.4646060506252355E-2</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="4"/>
+        <v>4.2499255252267339E-2</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="4"/>
+        <v>1.0242970446243365E-17</v>
+      </c>
+      <c r="N28">
+        <v>6.5565799999999994E-2</v>
+      </c>
+      <c r="O28">
+        <v>9.46071E-2</v>
+      </c>
+      <c r="P28">
+        <v>0.108389</v>
+      </c>
+      <c r="Q28">
+        <v>0.115402</v>
+      </c>
+      <c r="R28">
+        <v>0.116884</v>
+      </c>
+      <c r="S28">
+        <v>0.112231</v>
+      </c>
+      <c r="T28">
+        <v>0.100914</v>
+      </c>
+      <c r="U28">
+        <v>8.2965800000000006E-2</v>
+      </c>
+      <c r="V28">
+        <v>5.9106699999999998E-2</v>
+      </c>
+      <c r="W28">
+        <v>3.0766700000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <f t="shared" si="5"/>
+        <v>2.5703939893007397</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="6"/>
+        <v>0.42044497565216388</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="4"/>
+        <v>0.33237843404431849</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="4"/>
+        <v>0.26700438466723336</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="4"/>
+        <v>0.21712253294967693</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>0.1773261727746101</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="4"/>
+        <v>0.14366432169275162</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="4"/>
+        <v>0.11337257022893446</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="4"/>
+        <v>8.4646060506252355E-2</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="4"/>
+        <v>5.6435950529898263E-2</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="4"/>
+        <v>2.8257130517877101E-2</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="4"/>
+        <v>6.3944873713389912E-18</v>
+      </c>
+      <c r="N29">
+        <v>0.106834</v>
+      </c>
+      <c r="O29">
+        <v>9.8377300000000001E-2</v>
+      </c>
+      <c r="P29">
+        <v>8.6808200000000002E-2</v>
+      </c>
+      <c r="Q29">
+        <v>8.1194699999999995E-2</v>
+      </c>
+      <c r="R29">
+        <v>7.7548099999999995E-2</v>
+      </c>
+      <c r="S29">
+        <v>7.2500599999999998E-2</v>
+      </c>
+      <c r="T29">
+        <v>6.4337800000000001E-2</v>
+      </c>
+      <c r="U29">
+        <v>5.2508600000000002E-2</v>
+      </c>
+      <c r="V29">
+        <v>3.7242400000000002E-2</v>
+      </c>
+      <c r="W29">
+        <v>1.9336900000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <f t="shared" si="5"/>
+        <v>2.8559933214452666</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="6"/>
+        <v>0.21849709215907187</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="4"/>
+        <v>0.17205312022425279</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="4"/>
+        <v>0.13752773861573614</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="4"/>
+        <v>0.11120594945834542</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="4"/>
+        <v>9.0296838807564242E-2</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="4"/>
+        <v>7.2755360126875626E-2</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="4"/>
+        <v>5.7140955980640763E-2</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="4"/>
+        <v>4.2499255252267339E-2</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="4"/>
+        <v>2.8257130517877101E-2</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="4"/>
+        <v>1.4124649671619723E-2</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="4"/>
+        <v>3.0711382658998617E-18</v>
+      </c>
+      <c r="N30">
+        <v>0.26339099999999999</v>
+      </c>
+      <c r="O30">
+        <v>0.10526000000000001</v>
+      </c>
+      <c r="P30">
+        <v>5.9272100000000001E-2</v>
+      </c>
+      <c r="Q30">
+        <v>4.5019999999999998E-2</v>
+      </c>
+      <c r="R30">
+        <v>3.96134E-2</v>
+      </c>
+      <c r="S30">
+        <v>3.5885500000000001E-2</v>
+      </c>
+      <c r="T30">
+        <v>3.1427900000000002E-2</v>
+      </c>
+      <c r="U30">
+        <v>2.5488500000000001E-2</v>
+      </c>
+      <c r="V30">
+        <v>1.8017399999999999E-2</v>
+      </c>
+      <c r="W30">
+        <v>9.3385699999999992E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <f t="shared" si="5"/>
         <v>3.1415926535897931</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31">
-        <v>0.49107000000000001</v>
+        <f t="shared" si="6"/>
+        <v>9.1944992585949339E-17</v>
       </c>
       <c r="C31">
-        <v>0.67918299999999998</v>
+        <f t="shared" si="4"/>
+        <v>6.8925930874326932E-17</v>
       </c>
       <c r="D31">
-        <v>0.76129899999999995</v>
+        <f t="shared" si="4"/>
+        <v>5.1567267811915372E-17</v>
       </c>
       <c r="E31">
-        <v>0.79911799999999999</v>
+        <f t="shared" si="4"/>
+        <v>3.8443459315316838E-17</v>
       </c>
       <c r="F31">
-        <v>0.813697</v>
+        <f t="shared" si="4"/>
+        <v>2.8476739920295631E-17</v>
       </c>
       <c r="G31">
-        <v>0.81157900000000005</v>
+        <f t="shared" si="4"/>
+        <v>2.0848613535685378E-17</v>
       </c>
       <c r="H31">
-        <v>0.79147199999999995</v>
+        <f t="shared" si="4"/>
+        <v>1.4932636155061474E-17</v>
       </c>
       <c r="I31">
-        <v>0.74254799999999999</v>
+        <f t="shared" si="4"/>
+        <v>1.0242970446243365E-17</v>
       </c>
       <c r="J31">
-        <v>0.63124599999999997</v>
+        <f t="shared" si="4"/>
+        <v>6.3944873713389912E-18</v>
       </c>
       <c r="K31">
-        <v>0.35211300000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>0.28509600000000002</v>
-      </c>
-      <c r="C32">
-        <v>0.464362</v>
-      </c>
-      <c r="D32">
-        <v>0.56689500000000004</v>
-      </c>
-      <c r="E32">
-        <v>0.621475</v>
-      </c>
-      <c r="F32">
-        <v>0.644092</v>
-      </c>
-      <c r="G32">
-        <v>0.64114800000000005</v>
-      </c>
-      <c r="H32">
-        <v>0.61175900000000005</v>
-      </c>
-      <c r="I32">
-        <v>0.54747599999999996</v>
-      </c>
-      <c r="J32">
-        <v>0.43032100000000001</v>
-      </c>
-      <c r="K32">
-        <v>0.236905</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>0.18495300000000001</v>
-      </c>
-      <c r="C33">
-        <v>0.32627400000000001</v>
-      </c>
-      <c r="D33">
-        <v>0.42044399999999998</v>
-      </c>
-      <c r="E33">
-        <v>0.47579399999999999</v>
-      </c>
-      <c r="F33">
-        <v>0.50004800000000005</v>
-      </c>
-      <c r="G33">
-        <v>0.49716300000000002</v>
-      </c>
-      <c r="H33">
-        <v>0.46693800000000002</v>
-      </c>
-      <c r="I33">
-        <v>0.40527800000000003</v>
-      </c>
-      <c r="J33">
-        <v>0.30565500000000001</v>
-      </c>
-      <c r="K33">
-        <v>0.165187</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>0.128441</v>
-      </c>
-      <c r="C34">
-        <v>0.23533799999999999</v>
-      </c>
-      <c r="D34">
-        <v>0.31281300000000001</v>
-      </c>
-      <c r="E34">
-        <v>0.36120999999999998</v>
-      </c>
-      <c r="F34">
-        <v>0.38314399999999998</v>
-      </c>
-      <c r="G34">
-        <v>0.38051699999999999</v>
-      </c>
-      <c r="H34">
-        <v>0.35355399999999998</v>
-      </c>
-      <c r="I34">
-        <v>0.30104199999999998</v>
-      </c>
-      <c r="J34">
-        <v>0.221834</v>
-      </c>
-      <c r="K34">
-        <v>0.118187</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>9.3472899999999998E-2</v>
-      </c>
-      <c r="C35">
-        <v>0.173822</v>
-      </c>
-      <c r="D35">
-        <v>0.234262</v>
-      </c>
-      <c r="E35">
-        <v>0.27308700000000002</v>
-      </c>
-      <c r="F35">
-        <v>0.29079899999999997</v>
-      </c>
-      <c r="G35">
-        <v>0.28820899999999999</v>
-      </c>
-      <c r="H35">
-        <v>0.26571899999999998</v>
-      </c>
-      <c r="I35">
-        <v>0.22350300000000001</v>
-      </c>
-      <c r="J35">
-        <v>0.16245200000000001</v>
-      </c>
-      <c r="K35">
-        <v>8.5728399999999996E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>7.1628300000000006E-2</v>
-      </c>
-      <c r="C36">
-        <v>0.132218</v>
-      </c>
-      <c r="D36">
-        <v>0.17732400000000001</v>
-      </c>
-      <c r="E36">
-        <v>0.20607800000000001</v>
-      </c>
-      <c r="F36">
-        <v>0.21875800000000001</v>
-      </c>
-      <c r="G36">
-        <v>0.21580099999999999</v>
-      </c>
-      <c r="H36">
-        <v>0.19760900000000001</v>
-      </c>
-      <c r="I36">
-        <v>0.164798</v>
-      </c>
-      <c r="J36">
-        <v>0.118744</v>
-      </c>
-      <c r="K36">
-        <v>6.2273799999999997E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>6.0822599999999997E-2</v>
-      </c>
-      <c r="C37">
-        <v>0.106096</v>
-      </c>
-      <c r="D37">
-        <v>0.136738</v>
-      </c>
-      <c r="E37">
-        <v>0.155143</v>
-      </c>
-      <c r="F37">
-        <v>0.162353</v>
-      </c>
-      <c r="G37">
-        <v>0.15862599999999999</v>
-      </c>
-      <c r="H37">
-        <v>0.144121</v>
-      </c>
-      <c r="I37">
-        <v>0.119334</v>
-      </c>
-      <c r="J37">
-        <v>8.5451899999999997E-2</v>
-      </c>
-      <c r="K37">
-        <v>4.4623099999999999E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>6.5565799999999994E-2</v>
-      </c>
-      <c r="C38">
-        <v>9.46071E-2</v>
-      </c>
-      <c r="D38">
-        <v>0.108389</v>
-      </c>
-      <c r="E38">
-        <v>0.115402</v>
-      </c>
-      <c r="F38">
-        <v>0.116884</v>
-      </c>
-      <c r="G38">
-        <v>0.112231</v>
-      </c>
-      <c r="H38">
-        <v>0.100914</v>
-      </c>
-      <c r="I38">
-        <v>8.2965800000000006E-2</v>
-      </c>
-      <c r="J38">
-        <v>5.9106699999999998E-2</v>
-      </c>
-      <c r="K38">
-        <v>3.0766700000000001E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>0.106834</v>
-      </c>
-      <c r="C39">
-        <v>9.8377300000000001E-2</v>
-      </c>
-      <c r="D39">
-        <v>8.6808200000000002E-2</v>
-      </c>
-      <c r="E39">
-        <v>8.1194699999999995E-2</v>
-      </c>
-      <c r="F39">
-        <v>7.7548099999999995E-2</v>
-      </c>
-      <c r="G39">
-        <v>7.2500599999999998E-2</v>
-      </c>
-      <c r="H39">
-        <v>6.4337800000000001E-2</v>
-      </c>
-      <c r="I39">
-        <v>5.2508600000000002E-2</v>
-      </c>
-      <c r="J39">
-        <v>3.7242400000000002E-2</v>
-      </c>
-      <c r="K39">
-        <v>1.9336900000000001E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>0.26339099999999999</v>
-      </c>
-      <c r="C40">
-        <v>0.10526000000000001</v>
-      </c>
-      <c r="D40">
-        <v>5.9272100000000001E-2</v>
-      </c>
-      <c r="E40">
-        <v>4.5019999999999998E-2</v>
-      </c>
-      <c r="F40">
-        <v>3.96134E-2</v>
-      </c>
-      <c r="G40">
-        <v>3.5885500000000001E-2</v>
-      </c>
-      <c r="H40">
-        <v>3.1427900000000002E-2</v>
-      </c>
-      <c r="I40">
-        <v>2.5488500000000001E-2</v>
-      </c>
-      <c r="J40">
-        <v>1.8017399999999999E-2</v>
-      </c>
-      <c r="K40">
-        <v>9.3385699999999992E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>3.0711382658998617E-18</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>0.49575000000000002</v>
       </c>
@@ -1041,7 +1510,7 @@
         <v>0.35676999999999998</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>0.29396499999999998</v>
       </c>
@@ -1088,7 +1557,7 @@
         <v>0.245841</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>0.197102</v>
       </c>
@@ -1135,7 +1604,7 @@
         <v>0.17773900000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>0.142623</v>
       </c>
@@ -1182,7 +1651,7 @@
         <v>0.13355</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>0.10806399999999999</v>
       </c>
@@ -1229,7 +1698,7 @@
         <v>0.10310800000000001</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>8.4233199999999994E-2</v>
       </c>
@@ -1276,7 +1745,7 @@
         <v>8.1021899999999994E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>6.6892499999999994E-2</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,15 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>n =</t>
   </si>
@@ -40,6 +39,15 @@
   </si>
   <si>
     <t>n = 60</t>
+  </si>
+  <si>
+    <t>Cholesky:</t>
+  </si>
+  <si>
+    <t>Gaussian</t>
+  </si>
+  <si>
+    <t>Gaussian:</t>
   </si>
 </sst>
 </file>
@@ -387,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI186"/>
+  <dimension ref="A1:BI187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1479,9 +1487,21 @@
       <c r="N33">
         <v>0.166876</v>
       </c>
+      <c r="P33" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q33">
+        <v>6.0484600000000003E-3</v>
+      </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
+      <c r="P34" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q34">
+        <v>2.7024400000000001E-2</v>
+      </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="N35" t="s">
@@ -2197,6 +2217,20 @@
       <c r="N53">
         <v>0.125942</v>
       </c>
+      <c r="P53" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q53">
+        <v>6.2389800000000002E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="14:28" x14ac:dyDescent="0.25">
+      <c r="P54" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q54">
+        <v>0.29379499999999997</v>
+      </c>
     </row>
     <row r="87" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
@@ -4967,6 +5001,20 @@
       <c r="B121">
         <v>7.4098200000000003E-2</v>
       </c>
+      <c r="D121" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121">
+        <v>3.7536800000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122">
+        <v>19.951599999999999</v>
+      </c>
     </row>
     <row r="123" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
@@ -15896,6 +15944,20 @@
     <row r="186" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B186">
         <v>4.1454100000000001E-2</v>
+      </c>
+      <c r="E186" t="s">
+        <v>8</v>
+      </c>
+      <c r="F186">
+        <v>237.10400000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="E187" t="s">
+        <v>9</v>
+      </c>
+      <c r="F187">
+        <v>1061.9100000000001</v>
       </c>
     </row>
   </sheetData>
@@ -15906,24 +15968,2790 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>3.7536800000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>19.951599999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.18828900000000001</v>
+      </c>
+      <c r="B3">
+        <v>0.27204899999999999</v>
+      </c>
+      <c r="C3">
+        <v>0.35468699999999997</v>
+      </c>
+      <c r="D3">
+        <v>0.43511300000000003</v>
+      </c>
+      <c r="E3">
+        <v>0.51227800000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.58518899999999996</v>
+      </c>
+      <c r="G3">
+        <v>0.65291100000000002</v>
+      </c>
+      <c r="H3">
+        <v>0.71458299999999997</v>
+      </c>
+      <c r="I3">
+        <v>0.76941800000000005</v>
+      </c>
+      <c r="J3">
+        <v>0.81671899999999997</v>
+      </c>
+      <c r="K3">
+        <v>0.85587999999999997</v>
+      </c>
+      <c r="L3">
+        <v>0.88639299999999999</v>
+      </c>
+      <c r="M3">
+        <v>0.90785300000000002</v>
+      </c>
+      <c r="N3">
+        <v>0.91996299999999998</v>
+      </c>
+      <c r="O3">
+        <v>0.92253499999999999</v>
+      </c>
+      <c r="P3">
+        <v>0.91549100000000005</v>
+      </c>
+      <c r="Q3">
+        <v>0.89886699999999997</v>
+      </c>
+      <c r="R3">
+        <v>0.87280899999999995</v>
+      </c>
+      <c r="S3">
+        <v>0.83757499999999996</v>
+      </c>
+      <c r="T3">
+        <v>0.79352999999999996</v>
+      </c>
+      <c r="U3">
+        <v>0.741147</v>
+      </c>
+      <c r="V3">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="W3">
+        <v>0.61377199999999998</v>
+      </c>
+      <c r="X3">
+        <v>0.54025000000000001</v>
+      </c>
+      <c r="Y3">
+        <v>0.46134500000000001</v>
+      </c>
+      <c r="Z3">
+        <v>0.37813200000000002</v>
+      </c>
+      <c r="AA3">
+        <v>0.29194700000000001</v>
+      </c>
+      <c r="AB3">
+        <v>0.204682</v>
+      </c>
+      <c r="AC3">
+        <v>0.119628</v>
+      </c>
+      <c r="AD3">
+        <v>4.4245E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.27204899999999999</v>
+      </c>
+      <c r="B4">
+        <v>0.33731</v>
+      </c>
+      <c r="C4">
+        <v>0.40256999999999998</v>
+      </c>
+      <c r="D4">
+        <v>0.46674900000000002</v>
+      </c>
+      <c r="E4">
+        <v>0.52881100000000003</v>
+      </c>
+      <c r="F4">
+        <v>0.587781</v>
+      </c>
+      <c r="G4">
+        <v>0.64274399999999998</v>
+      </c>
+      <c r="H4">
+        <v>0.69285699999999995</v>
+      </c>
+      <c r="I4">
+        <v>0.73735399999999995</v>
+      </c>
+      <c r="J4">
+        <v>0.77555399999999997</v>
+      </c>
+      <c r="K4">
+        <v>0.806863</v>
+      </c>
+      <c r="L4">
+        <v>0.83078200000000002</v>
+      </c>
+      <c r="M4">
+        <v>0.84690900000000002</v>
+      </c>
+      <c r="N4">
+        <v>0.85494300000000001</v>
+      </c>
+      <c r="O4">
+        <v>0.85468500000000003</v>
+      </c>
+      <c r="P4">
+        <v>0.84604000000000001</v>
+      </c>
+      <c r="Q4">
+        <v>0.82901999999999998</v>
+      </c>
+      <c r="R4">
+        <v>0.80373799999999995</v>
+      </c>
+      <c r="S4">
+        <v>0.77041599999999999</v>
+      </c>
+      <c r="T4">
+        <v>0.72937399999999997</v>
+      </c>
+      <c r="U4">
+        <v>0.68103899999999995</v>
+      </c>
+      <c r="V4">
+        <v>0.62593799999999999</v>
+      </c>
+      <c r="W4">
+        <v>0.56470600000000004</v>
+      </c>
+      <c r="X4">
+        <v>0.49809599999999998</v>
+      </c>
+      <c r="Y4">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="Z4">
+        <v>0.352497</v>
+      </c>
+      <c r="AA4">
+        <v>0.27595700000000001</v>
+      </c>
+      <c r="AB4">
+        <v>0.19924</v>
+      </c>
+      <c r="AC4">
+        <v>0.125057</v>
+      </c>
+      <c r="AD4">
+        <v>5.7352100000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.35468699999999997</v>
+      </c>
+      <c r="B5">
+        <v>0.40256999999999998</v>
+      </c>
+      <c r="C5">
+        <v>0.45153500000000002</v>
+      </c>
+      <c r="D5">
+        <v>0.50049999999999994</v>
+      </c>
+      <c r="E5">
+        <v>0.54843699999999995</v>
+      </c>
+      <c r="F5">
+        <v>0.59438000000000002</v>
+      </c>
+      <c r="G5">
+        <v>0.63742600000000005</v>
+      </c>
+      <c r="H5">
+        <v>0.67674599999999996</v>
+      </c>
+      <c r="I5">
+        <v>0.71158699999999997</v>
+      </c>
+      <c r="J5">
+        <v>0.74127900000000002</v>
+      </c>
+      <c r="K5">
+        <v>0.76523600000000003</v>
+      </c>
+      <c r="L5">
+        <v>0.78296399999999999</v>
+      </c>
+      <c r="M5">
+        <v>0.79405899999999996</v>
+      </c>
+      <c r="N5">
+        <v>0.79821500000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.79522099999999996</v>
+      </c>
+      <c r="P5">
+        <v>0.78496600000000005</v>
+      </c>
+      <c r="Q5">
+        <v>0.76743300000000003</v>
+      </c>
+      <c r="R5">
+        <v>0.74270899999999995</v>
+      </c>
+      <c r="S5">
+        <v>0.71097600000000005</v>
+      </c>
+      <c r="T5">
+        <v>0.672512</v>
+      </c>
+      <c r="U5">
+        <v>0.62769699999999995</v>
+      </c>
+      <c r="V5">
+        <v>0.57700600000000002</v>
+      </c>
+      <c r="W5">
+        <v>0.52101900000000001</v>
+      </c>
+      <c r="X5">
+        <v>0.46043000000000001</v>
+      </c>
+      <c r="Y5">
+        <v>0.39606200000000003</v>
+      </c>
+      <c r="Z5">
+        <v>0.328901</v>
+      </c>
+      <c r="AA5">
+        <v>0.26014500000000002</v>
+      </c>
+      <c r="AB5">
+        <v>0.19126399999999999</v>
+      </c>
+      <c r="AC5">
+        <v>0.12400700000000001</v>
+      </c>
+      <c r="AD5">
+        <v>6.01065E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.43511300000000003</v>
+      </c>
+      <c r="B6">
+        <v>0.466748</v>
+      </c>
+      <c r="C6">
+        <v>0.50049999999999994</v>
+      </c>
+      <c r="D6">
+        <v>0.53527899999999995</v>
+      </c>
+      <c r="E6">
+        <v>0.57005899999999998</v>
+      </c>
+      <c r="F6">
+        <v>0.60387500000000005</v>
+      </c>
+      <c r="G6">
+        <v>0.63583400000000001</v>
+      </c>
+      <c r="H6">
+        <v>0.66511399999999998</v>
+      </c>
+      <c r="I6">
+        <v>0.69096999999999997</v>
+      </c>
+      <c r="J6">
+        <v>0.71273900000000001</v>
+      </c>
+      <c r="K6">
+        <v>0.72983900000000002</v>
+      </c>
+      <c r="L6">
+        <v>0.74177700000000002</v>
+      </c>
+      <c r="M6">
+        <v>0.74814800000000004</v>
+      </c>
+      <c r="N6">
+        <v>0.748637</v>
+      </c>
+      <c r="O6">
+        <v>0.74302000000000001</v>
+      </c>
+      <c r="P6">
+        <v>0.73116700000000001</v>
+      </c>
+      <c r="Q6">
+        <v>0.71303899999999998</v>
+      </c>
+      <c r="R6">
+        <v>0.688689</v>
+      </c>
+      <c r="S6">
+        <v>0.65826499999999999</v>
+      </c>
+      <c r="T6">
+        <v>0.62200200000000005</v>
+      </c>
+      <c r="U6">
+        <v>0.58023000000000002</v>
+      </c>
+      <c r="V6">
+        <v>0.53336899999999998</v>
+      </c>
+      <c r="W6">
+        <v>0.48193399999999997</v>
+      </c>
+      <c r="X6">
+        <v>0.42654199999999998</v>
+      </c>
+      <c r="Y6">
+        <v>0.36791600000000002</v>
+      </c>
+      <c r="Z6">
+        <v>0.30689899999999998</v>
+      </c>
+      <c r="AA6">
+        <v>0.24445700000000001</v>
+      </c>
+      <c r="AB6">
+        <v>0.18166399999999999</v>
+      </c>
+      <c r="AC6">
+        <v>0.119601</v>
+      </c>
+      <c r="AD6">
+        <v>5.9067000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.51227800000000001</v>
+      </c>
+      <c r="B7">
+        <v>0.52881100000000003</v>
+      </c>
+      <c r="C7">
+        <v>0.54843699999999995</v>
+      </c>
+      <c r="D7">
+        <v>0.57005899999999998</v>
+      </c>
+      <c r="E7">
+        <v>0.59264300000000003</v>
+      </c>
+      <c r="F7">
+        <v>0.615228</v>
+      </c>
+      <c r="G7">
+        <v>0.63692099999999996</v>
+      </c>
+      <c r="H7">
+        <v>0.65690499999999996</v>
+      </c>
+      <c r="I7">
+        <v>0.67444099999999996</v>
+      </c>
+      <c r="J7">
+        <v>0.68886700000000001</v>
+      </c>
+      <c r="K7">
+        <v>0.69960500000000003</v>
+      </c>
+      <c r="L7">
+        <v>0.70615899999999998</v>
+      </c>
+      <c r="M7">
+        <v>0.70811999999999997</v>
+      </c>
+      <c r="N7">
+        <v>0.70516500000000004</v>
+      </c>
+      <c r="O7">
+        <v>0.69705600000000001</v>
+      </c>
+      <c r="P7">
+        <v>0.68364400000000003</v>
+      </c>
+      <c r="Q7">
+        <v>0.66486599999999996</v>
+      </c>
+      <c r="R7">
+        <v>0.64074600000000004</v>
+      </c>
+      <c r="S7">
+        <v>0.61139299999999996</v>
+      </c>
+      <c r="T7">
+        <v>0.57700300000000004</v>
+      </c>
+      <c r="U7">
+        <v>0.53785300000000003</v>
+      </c>
+      <c r="V7">
+        <v>0.49430600000000002</v>
+      </c>
+      <c r="W7">
+        <v>0.44680799999999998</v>
+      </c>
+      <c r="X7">
+        <v>0.39588899999999999</v>
+      </c>
+      <c r="Y7">
+        <v>0.34216299999999999</v>
+      </c>
+      <c r="Z7">
+        <v>0.28632099999999999</v>
+      </c>
+      <c r="AA7">
+        <v>0.22911999999999999</v>
+      </c>
+      <c r="AB7">
+        <v>0.17133499999999999</v>
+      </c>
+      <c r="AC7">
+        <v>0.113665</v>
+      </c>
+      <c r="AD7">
+        <v>5.65605E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.58518899999999996</v>
+      </c>
+      <c r="B8">
+        <v>0.587781</v>
+      </c>
+      <c r="C8">
+        <v>0.59438000000000002</v>
+      </c>
+      <c r="D8">
+        <v>0.60387500000000005</v>
+      </c>
+      <c r="E8">
+        <v>0.615228</v>
+      </c>
+      <c r="F8">
+        <v>0.62747200000000003</v>
+      </c>
+      <c r="G8">
+        <v>0.63971699999999998</v>
+      </c>
+      <c r="H8">
+        <v>0.651146</v>
+      </c>
+      <c r="I8">
+        <v>0.66102099999999997</v>
+      </c>
+      <c r="J8">
+        <v>0.66868300000000003</v>
+      </c>
+      <c r="K8">
+        <v>0.67355399999999999</v>
+      </c>
+      <c r="L8">
+        <v>0.67513400000000001</v>
+      </c>
+      <c r="M8">
+        <v>0.67301</v>
+      </c>
+      <c r="N8">
+        <v>0.66684699999999997</v>
+      </c>
+      <c r="O8">
+        <v>0.65639499999999995</v>
+      </c>
+      <c r="P8">
+        <v>0.64148700000000003</v>
+      </c>
+      <c r="Q8">
+        <v>0.622035</v>
+      </c>
+      <c r="R8">
+        <v>0.59803399999999995</v>
+      </c>
+      <c r="S8">
+        <v>0.56955900000000004</v>
+      </c>
+      <c r="T8">
+        <v>0.53676199999999996</v>
+      </c>
+      <c r="U8">
+        <v>0.49987199999999998</v>
+      </c>
+      <c r="V8">
+        <v>0.45919399999999999</v>
+      </c>
+      <c r="W8">
+        <v>0.41510200000000003</v>
+      </c>
+      <c r="X8">
+        <v>0.36804300000000001</v>
+      </c>
+      <c r="Y8">
+        <v>0.31852399999999997</v>
+      </c>
+      <c r="Z8">
+        <v>0.26710299999999998</v>
+      </c>
+      <c r="AA8">
+        <v>0.214368</v>
+      </c>
+      <c r="AB8">
+        <v>0.16089100000000001</v>
+      </c>
+      <c r="AC8">
+        <v>0.107165</v>
+      </c>
+      <c r="AD8">
+        <v>5.3509899999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.65291100000000002</v>
+      </c>
+      <c r="B9">
+        <v>0.64274299999999995</v>
+      </c>
+      <c r="C9">
+        <v>0.63742500000000002</v>
+      </c>
+      <c r="D9">
+        <v>0.63583299999999998</v>
+      </c>
+      <c r="E9">
+        <v>0.63692099999999996</v>
+      </c>
+      <c r="F9">
+        <v>0.63971699999999998</v>
+      </c>
+      <c r="G9">
+        <v>0.64332800000000001</v>
+      </c>
+      <c r="H9">
+        <v>0.64693999999999996</v>
+      </c>
+      <c r="I9">
+        <v>0.64981500000000003</v>
+      </c>
+      <c r="J9">
+        <v>0.65129199999999998</v>
+      </c>
+      <c r="K9">
+        <v>0.65079200000000004</v>
+      </c>
+      <c r="L9">
+        <v>0.64781500000000003</v>
+      </c>
+      <c r="M9">
+        <v>0.64193699999999998</v>
+      </c>
+      <c r="N9">
+        <v>0.63281699999999996</v>
+      </c>
+      <c r="O9">
+        <v>0.62019100000000005</v>
+      </c>
+      <c r="P9">
+        <v>0.60387299999999999</v>
+      </c>
+      <c r="Q9">
+        <v>0.58375299999999997</v>
+      </c>
+      <c r="R9">
+        <v>0.55979699999999999</v>
+      </c>
+      <c r="S9">
+        <v>0.53204700000000005</v>
+      </c>
+      <c r="T9">
+        <v>0.50061500000000003</v>
+      </c>
+      <c r="U9">
+        <v>0.46568100000000001</v>
+      </c>
+      <c r="V9">
+        <v>0.42749399999999999</v>
+      </c>
+      <c r="W9">
+        <v>0.38636399999999999</v>
+      </c>
+      <c r="X9">
+        <v>0.34265699999999999</v>
+      </c>
+      <c r="Y9">
+        <v>0.29678700000000002</v>
+      </c>
+      <c r="Z9">
+        <v>0.2492</v>
+      </c>
+      <c r="AA9">
+        <v>0.20035700000000001</v>
+      </c>
+      <c r="AB9">
+        <v>0.150696</v>
+      </c>
+      <c r="AC9">
+        <v>0.100592</v>
+      </c>
+      <c r="AD9">
+        <v>5.0314699999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.71458299999999997</v>
+      </c>
+      <c r="B10">
+        <v>0.69285600000000003</v>
+      </c>
+      <c r="C10">
+        <v>0.67674500000000004</v>
+      </c>
+      <c r="D10">
+        <v>0.66511299999999995</v>
+      </c>
+      <c r="E10">
+        <v>0.65690499999999996</v>
+      </c>
+      <c r="F10">
+        <v>0.651146</v>
+      </c>
+      <c r="G10">
+        <v>0.64693999999999996</v>
+      </c>
+      <c r="H10">
+        <v>0.64347200000000004</v>
+      </c>
+      <c r="I10">
+        <v>0.64000500000000005</v>
+      </c>
+      <c r="J10">
+        <v>0.63587800000000005</v>
+      </c>
+      <c r="K10">
+        <v>0.63051000000000001</v>
+      </c>
+      <c r="L10">
+        <v>0.62339500000000003</v>
+      </c>
+      <c r="M10">
+        <v>0.61410799999999999</v>
+      </c>
+      <c r="N10">
+        <v>0.60229500000000002</v>
+      </c>
+      <c r="O10">
+        <v>0.58767999999999998</v>
+      </c>
+      <c r="P10">
+        <v>0.57006000000000001</v>
+      </c>
+      <c r="Q10">
+        <v>0.54930500000000004</v>
+      </c>
+      <c r="R10">
+        <v>0.52535500000000002</v>
+      </c>
+      <c r="S10">
+        <v>0.49821799999999999</v>
+      </c>
+      <c r="T10">
+        <v>0.467968</v>
+      </c>
+      <c r="U10">
+        <v>0.43474299999999999</v>
+      </c>
+      <c r="V10">
+        <v>0.39873799999999998</v>
+      </c>
+      <c r="W10">
+        <v>0.36020400000000002</v>
+      </c>
+      <c r="X10">
+        <v>0.31943500000000002</v>
+      </c>
+      <c r="Y10">
+        <v>0.27676600000000001</v>
+      </c>
+      <c r="Z10">
+        <v>0.23255500000000001</v>
+      </c>
+      <c r="AA10">
+        <v>0.187165</v>
+      </c>
+      <c r="AB10">
+        <v>0.14094300000000001</v>
+      </c>
+      <c r="AC10">
+        <v>9.4193700000000005E-2</v>
+      </c>
+      <c r="AD10">
+        <v>4.71566E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.76941800000000005</v>
+      </c>
+      <c r="B11">
+        <v>0.73735399999999995</v>
+      </c>
+      <c r="C11">
+        <v>0.71158699999999997</v>
+      </c>
+      <c r="D11">
+        <v>0.69096999999999997</v>
+      </c>
+      <c r="E11">
+        <v>0.67444099999999996</v>
+      </c>
+      <c r="F11">
+        <v>0.66102099999999997</v>
+      </c>
+      <c r="G11">
+        <v>0.64981500000000003</v>
+      </c>
+      <c r="H11">
+        <v>0.64000500000000005</v>
+      </c>
+      <c r="I11">
+        <v>0.63085500000000005</v>
+      </c>
+      <c r="J11">
+        <v>0.62170499999999995</v>
+      </c>
+      <c r="K11">
+        <v>0.61197299999999999</v>
+      </c>
+      <c r="L11">
+        <v>0.60114999999999996</v>
+      </c>
+      <c r="M11">
+        <v>0.58880399999999999</v>
+      </c>
+      <c r="N11">
+        <v>0.57457400000000003</v>
+      </c>
+      <c r="O11">
+        <v>0.55817399999999995</v>
+      </c>
+      <c r="P11">
+        <v>0.53938399999999997</v>
+      </c>
+      <c r="Q11">
+        <v>0.51805400000000001</v>
+      </c>
+      <c r="R11">
+        <v>0.49409999999999998</v>
+      </c>
+      <c r="S11">
+        <v>0.467501</v>
+      </c>
+      <c r="T11">
+        <v>0.43829699999999999</v>
+      </c>
+      <c r="U11">
+        <v>0.40658499999999997</v>
+      </c>
+      <c r="V11">
+        <v>0.37251299999999998</v>
+      </c>
+      <c r="W11">
+        <v>0.33627699999999999</v>
+      </c>
+      <c r="X11">
+        <v>0.29811300000000002</v>
+      </c>
+      <c r="Y11">
+        <v>0.25828800000000002</v>
+      </c>
+      <c r="Z11">
+        <v>0.217087</v>
+      </c>
+      <c r="AA11">
+        <v>0.17480399999999999</v>
+      </c>
+      <c r="AB11">
+        <v>0.131717</v>
+      </c>
+      <c r="AC11">
+        <v>8.80832E-2</v>
+      </c>
+      <c r="AD11">
+        <v>4.41181E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.81671899999999997</v>
+      </c>
+      <c r="B12">
+        <v>0.77555399999999997</v>
+      </c>
+      <c r="C12">
+        <v>0.74127900000000002</v>
+      </c>
+      <c r="D12">
+        <v>0.71273900000000001</v>
+      </c>
+      <c r="E12">
+        <v>0.68886700000000001</v>
+      </c>
+      <c r="F12">
+        <v>0.66868399999999995</v>
+      </c>
+      <c r="G12">
+        <v>0.65129199999999998</v>
+      </c>
+      <c r="H12">
+        <v>0.63587800000000005</v>
+      </c>
+      <c r="I12">
+        <v>0.62170599999999998</v>
+      </c>
+      <c r="J12">
+        <v>0.60811599999999999</v>
+      </c>
+      <c r="K12">
+        <v>0.594526</v>
+      </c>
+      <c r="L12">
+        <v>0.58042700000000003</v>
+      </c>
+      <c r="M12">
+        <v>0.56538299999999997</v>
+      </c>
+      <c r="N12">
+        <v>0.54902600000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.531057</v>
+      </c>
+      <c r="P12">
+        <v>0.51124700000000001</v>
+      </c>
+      <c r="Q12">
+        <v>0.48942600000000003</v>
+      </c>
+      <c r="R12">
+        <v>0.46548899999999999</v>
+      </c>
+      <c r="S12">
+        <v>0.43938899999999997</v>
+      </c>
+      <c r="T12">
+        <v>0.41113499999999997</v>
+      </c>
+      <c r="U12">
+        <v>0.38078600000000001</v>
+      </c>
+      <c r="V12">
+        <v>0.34845100000000001</v>
+      </c>
+      <c r="W12">
+        <v>0.314278</v>
+      </c>
+      <c r="X12">
+        <v>0.27845199999999998</v>
+      </c>
+      <c r="Y12">
+        <v>0.24118500000000001</v>
+      </c>
+      <c r="Z12">
+        <v>0.202704</v>
+      </c>
+      <c r="AA12">
+        <v>0.163245</v>
+      </c>
+      <c r="AB12">
+        <v>0.12304</v>
+      </c>
+      <c r="AC12">
+        <v>8.2303799999999996E-2</v>
+      </c>
+      <c r="AD12">
+        <v>4.1232400000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.85587999999999997</v>
+      </c>
+      <c r="B13">
+        <v>0.806863</v>
+      </c>
+      <c r="C13">
+        <v>0.76523600000000003</v>
+      </c>
+      <c r="D13">
+        <v>0.72983900000000002</v>
+      </c>
+      <c r="E13">
+        <v>0.69960500000000003</v>
+      </c>
+      <c r="F13">
+        <v>0.67355399999999999</v>
+      </c>
+      <c r="G13">
+        <v>0.65079299999999995</v>
+      </c>
+      <c r="H13">
+        <v>0.63051000000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.61197299999999999</v>
+      </c>
+      <c r="J13">
+        <v>0.594526</v>
+      </c>
+      <c r="K13">
+        <v>0.57758799999999999</v>
+      </c>
+      <c r="L13">
+        <v>0.56065100000000001</v>
+      </c>
+      <c r="M13">
+        <v>0.54327499999999995</v>
+      </c>
+      <c r="N13">
+        <v>0.525088</v>
+      </c>
+      <c r="O13">
+        <v>0.50578400000000001</v>
+      </c>
+      <c r="P13">
+        <v>0.48512</v>
+      </c>
+      <c r="Q13">
+        <v>0.46291399999999999</v>
+      </c>
+      <c r="R13">
+        <v>0.43904199999999999</v>
+      </c>
+      <c r="S13">
+        <v>0.41343200000000002</v>
+      </c>
+      <c r="T13">
+        <v>0.38606600000000002</v>
+      </c>
+      <c r="U13">
+        <v>0.35697400000000001</v>
+      </c>
+      <c r="V13">
+        <v>0.32622600000000002</v>
+      </c>
+      <c r="W13">
+        <v>0.293933</v>
+      </c>
+      <c r="X13">
+        <v>0.26023400000000002</v>
+      </c>
+      <c r="Y13">
+        <v>0.225295</v>
+      </c>
+      <c r="Z13">
+        <v>0.18929799999999999</v>
+      </c>
+      <c r="AA13">
+        <v>0.15243399999999999</v>
+      </c>
+      <c r="AB13">
+        <v>0.114893</v>
+      </c>
+      <c r="AC13">
+        <v>7.6859800000000006E-2</v>
+      </c>
+      <c r="AD13">
+        <v>3.8507800000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.88639299999999999</v>
+      </c>
+      <c r="B14">
+        <v>0.83078200000000002</v>
+      </c>
+      <c r="C14">
+        <v>0.78296299999999996</v>
+      </c>
+      <c r="D14">
+        <v>0.74177700000000002</v>
+      </c>
+      <c r="E14">
+        <v>0.70615899999999998</v>
+      </c>
+      <c r="F14">
+        <v>0.67513400000000001</v>
+      </c>
+      <c r="G14">
+        <v>0.64781500000000003</v>
+      </c>
+      <c r="H14">
+        <v>0.62339599999999995</v>
+      </c>
+      <c r="I14">
+        <v>0.60114999999999996</v>
+      </c>
+      <c r="J14">
+        <v>0.58042700000000003</v>
+      </c>
+      <c r="K14">
+        <v>0.56065100000000001</v>
+      </c>
+      <c r="L14">
+        <v>0.54131399999999996</v>
+      </c>
+      <c r="M14">
+        <v>0.52197700000000002</v>
+      </c>
+      <c r="N14">
+        <v>0.50226700000000002</v>
+      </c>
+      <c r="O14">
+        <v>0.48187000000000002</v>
+      </c>
+      <c r="P14">
+        <v>0.460536</v>
+      </c>
+      <c r="Q14">
+        <v>0.43807000000000001</v>
+      </c>
+      <c r="R14">
+        <v>0.414331</v>
+      </c>
+      <c r="S14">
+        <v>0.38923000000000002</v>
+      </c>
+      <c r="T14">
+        <v>0.36272500000000002</v>
+      </c>
+      <c r="U14">
+        <v>0.33481699999999998</v>
+      </c>
+      <c r="V14">
+        <v>0.30554799999999999</v>
+      </c>
+      <c r="W14">
+        <v>0.27499299999999999</v>
+      </c>
+      <c r="X14">
+        <v>0.243255</v>
+      </c>
+      <c r="Y14">
+        <v>0.21046300000000001</v>
+      </c>
+      <c r="Z14">
+        <v>0.17676</v>
+      </c>
+      <c r="AA14">
+        <v>0.14229900000000001</v>
+      </c>
+      <c r="AB14">
+        <v>0.107238</v>
+      </c>
+      <c r="AC14">
+        <v>7.1734400000000004E-2</v>
+      </c>
+      <c r="AD14">
+        <v>3.5939199999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.90785300000000002</v>
+      </c>
+      <c r="B15">
+        <v>0.84690900000000002</v>
+      </c>
+      <c r="C15">
+        <v>0.79405899999999996</v>
+      </c>
+      <c r="D15">
+        <v>0.74814800000000004</v>
+      </c>
+      <c r="E15">
+        <v>0.70811999999999997</v>
+      </c>
+      <c r="F15">
+        <v>0.67300899999999997</v>
+      </c>
+      <c r="G15">
+        <v>0.64193699999999998</v>
+      </c>
+      <c r="H15">
+        <v>0.61410799999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.58880399999999999</v>
+      </c>
+      <c r="J15">
+        <v>0.56538299999999997</v>
+      </c>
+      <c r="K15">
+        <v>0.54327499999999995</v>
+      </c>
+      <c r="L15">
+        <v>0.52197700000000002</v>
+      </c>
+      <c r="M15">
+        <v>0.501054</v>
+      </c>
+      <c r="N15">
+        <v>0.48013099999999997</v>
+      </c>
+      <c r="O15">
+        <v>0.45889400000000002</v>
+      </c>
+      <c r="P15">
+        <v>0.43708399999999997</v>
+      </c>
+      <c r="Q15">
+        <v>0.41449799999999998</v>
+      </c>
+      <c r="R15">
+        <v>0.390982</v>
+      </c>
+      <c r="S15">
+        <v>0.36643199999999998</v>
+      </c>
+      <c r="T15">
+        <v>0.34078599999999998</v>
+      </c>
+      <c r="U15">
+        <v>0.31402200000000002</v>
+      </c>
+      <c r="V15">
+        <v>0.28615600000000002</v>
+      </c>
+      <c r="W15">
+        <v>0.25723499999999999</v>
+      </c>
+      <c r="X15">
+        <v>0.22733200000000001</v>
+      </c>
+      <c r="Y15">
+        <v>0.19654199999999999</v>
+      </c>
+      <c r="Z15">
+        <v>0.16497899999999999</v>
+      </c>
+      <c r="AA15">
+        <v>0.13276399999999999</v>
+      </c>
+      <c r="AB15">
+        <v>0.100027</v>
+      </c>
+      <c r="AC15">
+        <v>6.6900299999999996E-2</v>
+      </c>
+      <c r="AD15">
+        <v>3.3514599999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.91996299999999998</v>
+      </c>
+      <c r="B16">
+        <v>0.85494300000000001</v>
+      </c>
+      <c r="C16">
+        <v>0.79821500000000001</v>
+      </c>
+      <c r="D16">
+        <v>0.748637</v>
+      </c>
+      <c r="E16">
+        <v>0.70516400000000001</v>
+      </c>
+      <c r="F16">
+        <v>0.66684600000000005</v>
+      </c>
+      <c r="G16">
+        <v>0.63281699999999996</v>
+      </c>
+      <c r="H16">
+        <v>0.60229500000000002</v>
+      </c>
+      <c r="I16">
+        <v>0.57457400000000003</v>
+      </c>
+      <c r="J16">
+        <v>0.54902499999999999</v>
+      </c>
+      <c r="K16">
+        <v>0.525088</v>
+      </c>
+      <c r="L16">
+        <v>0.50226599999999999</v>
+      </c>
+      <c r="M16">
+        <v>0.48013099999999997</v>
+      </c>
+      <c r="N16">
+        <v>0.45831</v>
+      </c>
+      <c r="O16">
+        <v>0.43648900000000002</v>
+      </c>
+      <c r="P16">
+        <v>0.41440700000000003</v>
+      </c>
+      <c r="Q16">
+        <v>0.39185500000000001</v>
+      </c>
+      <c r="R16">
+        <v>0.36866900000000002</v>
+      </c>
+      <c r="S16">
+        <v>0.34473100000000001</v>
+      </c>
+      <c r="T16">
+        <v>0.319965</v>
+      </c>
+      <c r="U16">
+        <v>0.29432999999999998</v>
+      </c>
+      <c r="V16">
+        <v>0.26782</v>
+      </c>
+      <c r="W16">
+        <v>0.24045900000000001</v>
+      </c>
+      <c r="X16">
+        <v>0.21229400000000001</v>
+      </c>
+      <c r="Y16">
+        <v>0.183396</v>
+      </c>
+      <c r="Z16">
+        <v>0.15384900000000001</v>
+      </c>
+      <c r="AA16">
+        <v>0.123751</v>
+      </c>
+      <c r="AB16">
+        <v>9.3206399999999995E-2</v>
+      </c>
+      <c r="AC16">
+        <v>6.2325100000000001E-2</v>
+      </c>
+      <c r="AD16">
+        <v>3.1218800000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.92253399999999997</v>
+      </c>
+      <c r="B17">
+        <v>0.85468500000000003</v>
+      </c>
+      <c r="C17">
+        <v>0.79522099999999996</v>
+      </c>
+      <c r="D17">
+        <v>0.74302000000000001</v>
+      </c>
+      <c r="E17">
+        <v>0.69705499999999998</v>
+      </c>
+      <c r="F17">
+        <v>0.65639499999999995</v>
+      </c>
+      <c r="G17">
+        <v>0.62019100000000005</v>
+      </c>
+      <c r="H17">
+        <v>0.58767999999999998</v>
+      </c>
+      <c r="I17">
+        <v>0.55817399999999995</v>
+      </c>
+      <c r="J17">
+        <v>0.531057</v>
+      </c>
+      <c r="K17">
+        <v>0.50578400000000001</v>
+      </c>
+      <c r="L17">
+        <v>0.48187000000000002</v>
+      </c>
+      <c r="M17">
+        <v>0.458893</v>
+      </c>
+      <c r="N17">
+        <v>0.43648900000000002</v>
+      </c>
+      <c r="O17">
+        <v>0.41434599999999999</v>
+      </c>
+      <c r="P17">
+        <v>0.392202</v>
+      </c>
+      <c r="Q17">
+        <v>0.36984499999999998</v>
+      </c>
+      <c r="R17">
+        <v>0.347107</v>
+      </c>
+      <c r="S17">
+        <v>0.32385900000000001</v>
+      </c>
+      <c r="T17">
+        <v>0.300012</v>
+      </c>
+      <c r="U17">
+        <v>0.27551199999999998</v>
+      </c>
+      <c r="V17">
+        <v>0.25033499999999997</v>
+      </c>
+      <c r="W17">
+        <v>0.22448599999999999</v>
+      </c>
+      <c r="X17">
+        <v>0.197991</v>
+      </c>
+      <c r="Y17">
+        <v>0.170899</v>
+      </c>
+      <c r="Z17">
+        <v>0.14327100000000001</v>
+      </c>
+      <c r="AA17">
+        <v>0.11518399999999999</v>
+      </c>
+      <c r="AB17">
+        <v>8.6722300000000002E-2</v>
+      </c>
+      <c r="AC17">
+        <v>5.79748E-2</v>
+      </c>
+      <c r="AD17">
+        <v>2.9035600000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.91549100000000005</v>
+      </c>
+      <c r="B18">
+        <v>0.84603899999999999</v>
+      </c>
+      <c r="C18">
+        <v>0.78496500000000002</v>
+      </c>
+      <c r="D18">
+        <v>0.73116599999999998</v>
+      </c>
+      <c r="E18">
+        <v>0.683643</v>
+      </c>
+      <c r="F18">
+        <v>0.641486</v>
+      </c>
+      <c r="G18">
+        <v>0.60387199999999996</v>
+      </c>
+      <c r="H18">
+        <v>0.57006000000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.53938299999999995</v>
+      </c>
+      <c r="J18">
+        <v>0.51124700000000001</v>
+      </c>
+      <c r="K18">
+        <v>0.48512</v>
+      </c>
+      <c r="L18">
+        <v>0.460536</v>
+      </c>
+      <c r="M18">
+        <v>0.437083</v>
+      </c>
+      <c r="N18">
+        <v>0.41440700000000003</v>
+      </c>
+      <c r="O18">
+        <v>0.392202</v>
+      </c>
+      <c r="P18">
+        <v>0.37020999999999998</v>
+      </c>
+      <c r="Q18">
+        <v>0.34821800000000003</v>
+      </c>
+      <c r="R18">
+        <v>0.32605400000000001</v>
+      </c>
+      <c r="S18">
+        <v>0.30358499999999999</v>
+      </c>
+      <c r="T18">
+        <v>0.28071200000000002</v>
+      </c>
+      <c r="U18">
+        <v>0.25737100000000002</v>
+      </c>
+      <c r="V18">
+        <v>0.23352300000000001</v>
+      </c>
+      <c r="W18">
+        <v>0.20915800000000001</v>
+      </c>
+      <c r="X18">
+        <v>0.18428600000000001</v>
+      </c>
+      <c r="Y18">
+        <v>0.15893599999999999</v>
+      </c>
+      <c r="Z18">
+        <v>0.13315199999999999</v>
+      </c>
+      <c r="AA18">
+        <v>0.106993</v>
+      </c>
+      <c r="AB18">
+        <v>8.0523499999999998E-2</v>
+      </c>
+      <c r="AC18">
+        <v>5.3816299999999997E-2</v>
+      </c>
+      <c r="AD18">
+        <v>2.69486E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.89886600000000005</v>
+      </c>
+      <c r="B19">
+        <v>0.82901899999999995</v>
+      </c>
+      <c r="C19">
+        <v>0.767432</v>
+      </c>
+      <c r="D19">
+        <v>0.71303799999999995</v>
+      </c>
+      <c r="E19">
+        <v>0.66486500000000004</v>
+      </c>
+      <c r="F19">
+        <v>0.62203399999999998</v>
+      </c>
+      <c r="G19">
+        <v>0.58375200000000005</v>
+      </c>
+      <c r="H19">
+        <v>0.54930500000000004</v>
+      </c>
+      <c r="I19">
+        <v>0.51805299999999999</v>
+      </c>
+      <c r="J19">
+        <v>0.48942600000000003</v>
+      </c>
+      <c r="K19">
+        <v>0.46291399999999999</v>
+      </c>
+      <c r="L19">
+        <v>0.43807000000000001</v>
+      </c>
+      <c r="M19">
+        <v>0.41449799999999998</v>
+      </c>
+      <c r="N19">
+        <v>0.39185500000000001</v>
+      </c>
+      <c r="O19">
+        <v>0.36984499999999998</v>
+      </c>
+      <c r="P19">
+        <v>0.34821800000000003</v>
+      </c>
+      <c r="Q19">
+        <v>0.326762</v>
+      </c>
+      <c r="R19">
+        <v>0.30530600000000002</v>
+      </c>
+      <c r="S19">
+        <v>0.28371400000000002</v>
+      </c>
+      <c r="T19">
+        <v>0.261882</v>
+      </c>
+      <c r="U19">
+        <v>0.239736</v>
+      </c>
+      <c r="V19">
+        <v>0.21722900000000001</v>
+      </c>
+      <c r="W19">
+        <v>0.19433800000000001</v>
+      </c>
+      <c r="X19">
+        <v>0.17105799999999999</v>
+      </c>
+      <c r="Y19">
+        <v>0.14740600000000001</v>
+      </c>
+      <c r="Z19">
+        <v>0.12341000000000001</v>
+      </c>
+      <c r="AA19">
+        <v>9.9112000000000006E-2</v>
+      </c>
+      <c r="AB19">
+        <v>7.4562299999999998E-2</v>
+      </c>
+      <c r="AC19">
+        <v>4.9818399999999999E-2</v>
+      </c>
+      <c r="AD19">
+        <v>2.4942499999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.87280899999999995</v>
+      </c>
+      <c r="B20">
+        <v>0.80373799999999995</v>
+      </c>
+      <c r="C20">
+        <v>0.74270800000000003</v>
+      </c>
+      <c r="D20">
+        <v>0.688689</v>
+      </c>
+      <c r="E20">
+        <v>0.64074500000000001</v>
+      </c>
+      <c r="F20">
+        <v>0.59803399999999995</v>
+      </c>
+      <c r="G20">
+        <v>0.55979699999999999</v>
+      </c>
+      <c r="H20">
+        <v>0.52535500000000002</v>
+      </c>
+      <c r="I20">
+        <v>0.49409999999999998</v>
+      </c>
+      <c r="J20">
+        <v>0.46548899999999999</v>
+      </c>
+      <c r="K20">
+        <v>0.43904199999999999</v>
+      </c>
+      <c r="L20">
+        <v>0.414331</v>
+      </c>
+      <c r="M20">
+        <v>0.39098300000000002</v>
+      </c>
+      <c r="N20">
+        <v>0.36866900000000002</v>
+      </c>
+      <c r="O20">
+        <v>0.347107</v>
+      </c>
+      <c r="P20">
+        <v>0.32605400000000001</v>
+      </c>
+      <c r="Q20">
+        <v>0.305307</v>
+      </c>
+      <c r="R20">
+        <v>0.28469499999999998</v>
+      </c>
+      <c r="S20">
+        <v>0.26408399999999999</v>
+      </c>
+      <c r="T20">
+        <v>0.243366</v>
+      </c>
+      <c r="U20">
+        <v>0.22246299999999999</v>
+      </c>
+      <c r="V20">
+        <v>0.20132</v>
+      </c>
+      <c r="W20">
+        <v>0.17990500000000001</v>
+      </c>
+      <c r="X20">
+        <v>0.15820400000000001</v>
+      </c>
+      <c r="Y20">
+        <v>0.13622000000000001</v>
+      </c>
+      <c r="Z20">
+        <v>0.11397</v>
+      </c>
+      <c r="AA20">
+        <v>9.1482499999999994E-2</v>
+      </c>
+      <c r="AB20">
+        <v>6.8795300000000004E-2</v>
+      </c>
+      <c r="AC20">
+        <v>4.5952399999999997E-2</v>
+      </c>
+      <c r="AD20">
+        <v>2.3003200000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.83757499999999996</v>
+      </c>
+      <c r="B21">
+        <v>0.77041499999999996</v>
+      </c>
+      <c r="C21">
+        <v>0.71097500000000002</v>
+      </c>
+      <c r="D21">
+        <v>0.65826499999999999</v>
+      </c>
+      <c r="E21">
+        <v>0.61139200000000005</v>
+      </c>
+      <c r="F21">
+        <v>0.56955900000000004</v>
+      </c>
+      <c r="G21">
+        <v>0.53204700000000005</v>
+      </c>
+      <c r="H21">
+        <v>0.49821799999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.467501</v>
+      </c>
+      <c r="J21">
+        <v>0.43938899999999997</v>
+      </c>
+      <c r="K21">
+        <v>0.41343200000000002</v>
+      </c>
+      <c r="L21">
+        <v>0.38923099999999999</v>
+      </c>
+      <c r="M21">
+        <v>0.36643300000000001</v>
+      </c>
+      <c r="N21">
+        <v>0.34473199999999998</v>
+      </c>
+      <c r="O21">
+        <v>0.32385900000000001</v>
+      </c>
+      <c r="P21">
+        <v>0.30358499999999999</v>
+      </c>
+      <c r="Q21">
+        <v>0.28371499999999999</v>
+      </c>
+      <c r="R21">
+        <v>0.26408399999999999</v>
+      </c>
+      <c r="S21">
+        <v>0.24456</v>
+      </c>
+      <c r="T21">
+        <v>0.22503500000000001</v>
+      </c>
+      <c r="U21">
+        <v>0.20543</v>
+      </c>
+      <c r="V21">
+        <v>0.18568399999999999</v>
+      </c>
+      <c r="W21">
+        <v>0.16575799999999999</v>
+      </c>
+      <c r="X21">
+        <v>0.14563200000000001</v>
+      </c>
+      <c r="Y21">
+        <v>0.12529899999999999</v>
+      </c>
+      <c r="Z21">
+        <v>0.104767</v>
+      </c>
+      <c r="AA21">
+        <v>8.4053000000000003E-2</v>
+      </c>
+      <c r="AB21">
+        <v>6.3183900000000001E-2</v>
+      </c>
+      <c r="AC21">
+        <v>4.2192800000000003E-2</v>
+      </c>
+      <c r="AD21">
+        <v>2.1117799999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.79352999999999996</v>
+      </c>
+      <c r="B22">
+        <v>0.72937399999999997</v>
+      </c>
+      <c r="C22">
+        <v>0.672512</v>
+      </c>
+      <c r="D22">
+        <v>0.62200200000000005</v>
+      </c>
+      <c r="E22">
+        <v>0.57700200000000001</v>
+      </c>
+      <c r="F22">
+        <v>0.53676199999999996</v>
+      </c>
+      <c r="G22">
+        <v>0.50061500000000003</v>
+      </c>
+      <c r="H22">
+        <v>0.46796900000000002</v>
+      </c>
+      <c r="I22">
+        <v>0.43829800000000002</v>
+      </c>
+      <c r="J22">
+        <v>0.41113499999999997</v>
+      </c>
+      <c r="K22">
+        <v>0.38606699999999999</v>
+      </c>
+      <c r="L22">
+        <v>0.36272599999999999</v>
+      </c>
+      <c r="M22">
+        <v>0.34078700000000001</v>
+      </c>
+      <c r="N22">
+        <v>0.319965</v>
+      </c>
+      <c r="O22">
+        <v>0.30001299999999997</v>
+      </c>
+      <c r="P22">
+        <v>0.28071299999999999</v>
+      </c>
+      <c r="Q22">
+        <v>0.26188299999999998</v>
+      </c>
+      <c r="R22">
+        <v>0.243367</v>
+      </c>
+      <c r="S22">
+        <v>0.22503600000000001</v>
+      </c>
+      <c r="T22">
+        <v>0.206786</v>
+      </c>
+      <c r="U22">
+        <v>0.18853700000000001</v>
+      </c>
+      <c r="V22">
+        <v>0.17022599999999999</v>
+      </c>
+      <c r="W22">
+        <v>0.151812</v>
+      </c>
+      <c r="X22">
+        <v>0.133267</v>
+      </c>
+      <c r="Y22">
+        <v>0.114578</v>
+      </c>
+      <c r="Z22">
+        <v>9.5745800000000006E-2</v>
+      </c>
+      <c r="AA22">
+        <v>7.6778700000000005E-2</v>
+      </c>
+      <c r="AB22">
+        <v>5.7694599999999999E-2</v>
+      </c>
+      <c r="AC22">
+        <v>3.8517200000000001E-2</v>
+      </c>
+      <c r="AD22">
+        <v>1.92751E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.74114599999999997</v>
+      </c>
+      <c r="B23">
+        <v>0.68103800000000003</v>
+      </c>
+      <c r="C23">
+        <v>0.62769600000000003</v>
+      </c>
+      <c r="D23">
+        <v>0.58023000000000002</v>
+      </c>
+      <c r="E23">
+        <v>0.53785300000000003</v>
+      </c>
+      <c r="F23">
+        <v>0.49987199999999998</v>
+      </c>
+      <c r="G23">
+        <v>0.46568100000000001</v>
+      </c>
+      <c r="H23">
+        <v>0.43474400000000002</v>
+      </c>
+      <c r="I23">
+        <v>0.40658499999999997</v>
+      </c>
+      <c r="J23">
+        <v>0.38078699999999999</v>
+      </c>
+      <c r="K23">
+        <v>0.35697499999999999</v>
+      </c>
+      <c r="L23">
+        <v>0.334818</v>
+      </c>
+      <c r="M23">
+        <v>0.314023</v>
+      </c>
+      <c r="N23">
+        <v>0.29433100000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.27551300000000001</v>
+      </c>
+      <c r="P23">
+        <v>0.25737199999999999</v>
+      </c>
+      <c r="Q23">
+        <v>0.23973700000000001</v>
+      </c>
+      <c r="R23">
+        <v>0.222464</v>
+      </c>
+      <c r="S23">
+        <v>0.20543</v>
+      </c>
+      <c r="T23">
+        <v>0.18853700000000001</v>
+      </c>
+      <c r="U23">
+        <v>0.171705</v>
+      </c>
+      <c r="V23">
+        <v>0.15487300000000001</v>
+      </c>
+      <c r="W23">
+        <v>0.13799600000000001</v>
+      </c>
+      <c r="X23">
+        <v>0.121045</v>
+      </c>
+      <c r="Y23">
+        <v>0.104001</v>
+      </c>
+      <c r="Z23">
+        <v>8.6859400000000003E-2</v>
+      </c>
+      <c r="AA23">
+        <v>6.9621600000000006E-2</v>
+      </c>
+      <c r="AB23">
+        <v>5.2298400000000002E-2</v>
+      </c>
+      <c r="AC23">
+        <v>3.4906199999999998E-2</v>
+      </c>
+      <c r="AD23">
+        <v>1.7465600000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="B24">
+        <v>0.62593699999999997</v>
+      </c>
+      <c r="C24">
+        <v>0.57700499999999999</v>
+      </c>
+      <c r="D24">
+        <v>0.53336899999999998</v>
+      </c>
+      <c r="E24">
+        <v>0.49430600000000002</v>
+      </c>
+      <c r="F24">
+        <v>0.45919399999999999</v>
+      </c>
+      <c r="G24">
+        <v>0.42749500000000001</v>
+      </c>
+      <c r="H24">
+        <v>0.39873900000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.37251400000000001</v>
+      </c>
+      <c r="J24">
+        <v>0.34845199999999998</v>
+      </c>
+      <c r="K24">
+        <v>0.32622800000000002</v>
+      </c>
+      <c r="L24">
+        <v>0.30554900000000002</v>
+      </c>
+      <c r="M24">
+        <v>0.28615699999999999</v>
+      </c>
+      <c r="N24">
+        <v>0.26782099999999998</v>
+      </c>
+      <c r="O24">
+        <v>0.250336</v>
+      </c>
+      <c r="P24">
+        <v>0.23352400000000001</v>
+      </c>
+      <c r="Q24">
+        <v>0.21723000000000001</v>
+      </c>
+      <c r="R24">
+        <v>0.201321</v>
+      </c>
+      <c r="S24">
+        <v>0.18568399999999999</v>
+      </c>
+      <c r="T24">
+        <v>0.17022699999999999</v>
+      </c>
+      <c r="U24">
+        <v>0.15487300000000001</v>
+      </c>
+      <c r="V24">
+        <v>0.13956399999999999</v>
+      </c>
+      <c r="W24">
+        <v>0.12425600000000001</v>
+      </c>
+      <c r="X24">
+        <v>0.108915</v>
+      </c>
+      <c r="Y24">
+        <v>9.3523200000000001E-2</v>
+      </c>
+      <c r="Z24">
+        <v>7.8068700000000005E-2</v>
+      </c>
+      <c r="AA24">
+        <v>6.25497E-2</v>
+      </c>
+      <c r="AB24">
+        <v>4.6971300000000001E-2</v>
+      </c>
+      <c r="AC24">
+        <v>3.1343599999999999E-2</v>
+      </c>
+      <c r="AD24">
+        <v>1.5680900000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.61377099999999996</v>
+      </c>
+      <c r="B25">
+        <v>0.56470600000000004</v>
+      </c>
+      <c r="C25">
+        <v>0.52101900000000001</v>
+      </c>
+      <c r="D25">
+        <v>0.48193399999999997</v>
+      </c>
+      <c r="E25">
+        <v>0.44680799999999998</v>
+      </c>
+      <c r="F25">
+        <v>0.415103</v>
+      </c>
+      <c r="G25">
+        <v>0.38636500000000001</v>
+      </c>
+      <c r="H25">
+        <v>0.36020400000000002</v>
+      </c>
+      <c r="I25">
+        <v>0.33627800000000002</v>
+      </c>
+      <c r="J25">
+        <v>0.31427899999999998</v>
+      </c>
+      <c r="K25">
+        <v>0.29393399999999997</v>
+      </c>
+      <c r="L25">
+        <v>0.27499400000000002</v>
+      </c>
+      <c r="M25">
+        <v>0.25723600000000002</v>
+      </c>
+      <c r="N25">
+        <v>0.24046000000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.22448699999999999</v>
+      </c>
+      <c r="P25">
+        <v>0.20915900000000001</v>
+      </c>
+      <c r="Q25">
+        <v>0.19433800000000001</v>
+      </c>
+      <c r="R25">
+        <v>0.17990600000000001</v>
+      </c>
+      <c r="S25">
+        <v>0.16575899999999999</v>
+      </c>
+      <c r="T25">
+        <v>0.151812</v>
+      </c>
+      <c r="U25">
+        <v>0.13799700000000001</v>
+      </c>
+      <c r="V25">
+        <v>0.12425600000000001</v>
+      </c>
+      <c r="W25">
+        <v>0.11054700000000001</v>
+      </c>
+      <c r="X25">
+        <v>9.6837800000000002E-2</v>
+      </c>
+      <c r="Y25">
+        <v>8.3107200000000006E-2</v>
+      </c>
+      <c r="Z25">
+        <v>6.9342299999999996E-2</v>
+      </c>
+      <c r="AA25">
+        <v>5.5537400000000001E-2</v>
+      </c>
+      <c r="AB25">
+        <v>4.1693500000000001E-2</v>
+      </c>
+      <c r="AC25">
+        <v>2.7816199999999999E-2</v>
+      </c>
+      <c r="AD25">
+        <v>1.39145E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.54024899999999998</v>
+      </c>
+      <c r="B26">
+        <v>0.49809599999999998</v>
+      </c>
+      <c r="C26">
+        <v>0.46042899999999998</v>
+      </c>
+      <c r="D26">
+        <v>0.42654199999999998</v>
+      </c>
+      <c r="E26">
+        <v>0.39588899999999999</v>
+      </c>
+      <c r="F26">
+        <v>0.36804300000000001</v>
+      </c>
+      <c r="G26">
+        <v>0.34265800000000002</v>
+      </c>
+      <c r="H26">
+        <v>0.319436</v>
+      </c>
+      <c r="I26">
+        <v>0.29811399999999999</v>
+      </c>
+      <c r="J26">
+        <v>0.27845399999999998</v>
+      </c>
+      <c r="K26">
+        <v>0.26023499999999999</v>
+      </c>
+      <c r="L26">
+        <v>0.243257</v>
+      </c>
+      <c r="M26">
+        <v>0.22733300000000001</v>
+      </c>
+      <c r="N26">
+        <v>0.21229500000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.197992</v>
+      </c>
+      <c r="P26">
+        <v>0.18428700000000001</v>
+      </c>
+      <c r="Q26">
+        <v>0.17105899999999999</v>
+      </c>
+      <c r="R26">
+        <v>0.15820400000000001</v>
+      </c>
+      <c r="S26">
+        <v>0.14563200000000001</v>
+      </c>
+      <c r="T26">
+        <v>0.133267</v>
+      </c>
+      <c r="U26">
+        <v>0.121045</v>
+      </c>
+      <c r="V26">
+        <v>0.108916</v>
+      </c>
+      <c r="W26">
+        <v>9.6837800000000002E-2</v>
+      </c>
+      <c r="X26">
+        <v>8.4781700000000002E-2</v>
+      </c>
+      <c r="Y26">
+        <v>7.2725700000000004E-2</v>
+      </c>
+      <c r="Z26">
+        <v>6.06557E-2</v>
+      </c>
+      <c r="AA26">
+        <v>4.8564200000000002E-2</v>
+      </c>
+      <c r="AB26">
+        <v>3.6449299999999997E-2</v>
+      </c>
+      <c r="AC26">
+        <v>2.4313000000000001E-2</v>
+      </c>
+      <c r="AD26">
+        <v>1.2160799999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.46134500000000001</v>
+      </c>
+      <c r="B27">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="C27">
+        <v>0.396061</v>
+      </c>
+      <c r="D27">
+        <v>0.36791600000000002</v>
+      </c>
+      <c r="E27">
+        <v>0.34216299999999999</v>
+      </c>
+      <c r="F27">
+        <v>0.31852399999999997</v>
+      </c>
+      <c r="G27">
+        <v>0.29678700000000002</v>
+      </c>
+      <c r="H27">
+        <v>0.27676699999999999</v>
+      </c>
+      <c r="I27">
+        <v>0.25828899999999999</v>
+      </c>
+      <c r="J27">
+        <v>0.24118600000000001</v>
+      </c>
+      <c r="K27">
+        <v>0.225296</v>
+      </c>
+      <c r="L27">
+        <v>0.21046400000000001</v>
+      </c>
+      <c r="M27">
+        <v>0.196544</v>
+      </c>
+      <c r="N27">
+        <v>0.183397</v>
+      </c>
+      <c r="O27">
+        <v>0.170899</v>
+      </c>
+      <c r="P27">
+        <v>0.15893599999999999</v>
+      </c>
+      <c r="Q27">
+        <v>0.14740600000000001</v>
+      </c>
+      <c r="R27">
+        <v>0.13622000000000001</v>
+      </c>
+      <c r="S27">
+        <v>0.12529999999999999</v>
+      </c>
+      <c r="T27">
+        <v>0.114579</v>
+      </c>
+      <c r="U27">
+        <v>0.104002</v>
+      </c>
+      <c r="V27">
+        <v>9.3523300000000004E-2</v>
+      </c>
+      <c r="W27">
+        <v>8.3107200000000006E-2</v>
+      </c>
+      <c r="X27">
+        <v>7.2725700000000004E-2</v>
+      </c>
+      <c r="Y27">
+        <v>6.23581E-2</v>
+      </c>
+      <c r="Z27">
+        <v>5.1990599999999998E-2</v>
+      </c>
+      <c r="AA27">
+        <v>4.1614600000000002E-2</v>
+      </c>
+      <c r="AB27">
+        <v>3.1226400000000001E-2</v>
+      </c>
+      <c r="AC27">
+        <v>2.0825900000000001E-2</v>
+      </c>
+      <c r="AD27">
+        <v>1.0415600000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.37813099999999999</v>
+      </c>
+      <c r="B28">
+        <v>0.352497</v>
+      </c>
+      <c r="C28">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="D28">
+        <v>0.30689899999999998</v>
+      </c>
+      <c r="E28">
+        <v>0.28632099999999999</v>
+      </c>
+      <c r="F28">
+        <v>0.26710400000000001</v>
+      </c>
+      <c r="G28">
+        <v>0.24920100000000001</v>
+      </c>
+      <c r="H28">
+        <v>0.23255500000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.217088</v>
+      </c>
+      <c r="J28">
+        <v>0.202705</v>
+      </c>
+      <c r="K28">
+        <v>0.189299</v>
+      </c>
+      <c r="L28">
+        <v>0.176761</v>
+      </c>
+      <c r="M28">
+        <v>0.16497999999999999</v>
+      </c>
+      <c r="N28">
+        <v>0.15384999999999999</v>
+      </c>
+      <c r="O28">
+        <v>0.14327200000000001</v>
+      </c>
+      <c r="P28">
+        <v>0.13315299999999999</v>
+      </c>
+      <c r="Q28">
+        <v>0.12341000000000001</v>
+      </c>
+      <c r="R28">
+        <v>0.11397</v>
+      </c>
+      <c r="S28">
+        <v>0.104767</v>
+      </c>
+      <c r="T28">
+        <v>9.5746100000000001E-2</v>
+      </c>
+      <c r="U28">
+        <v>8.6859599999999995E-2</v>
+      </c>
+      <c r="V28">
+        <v>7.8068700000000005E-2</v>
+      </c>
+      <c r="W28">
+        <v>6.9342299999999996E-2</v>
+      </c>
+      <c r="X28">
+        <v>6.06557E-2</v>
+      </c>
+      <c r="Y28">
+        <v>5.1990599999999998E-2</v>
+      </c>
+      <c r="Z28">
+        <v>4.3333799999999999E-2</v>
+      </c>
+      <c r="AA28">
+        <v>3.4677100000000002E-2</v>
+      </c>
+      <c r="AB28">
+        <v>2.6015799999999999E-2</v>
+      </c>
+      <c r="AC28">
+        <v>1.7348499999999999E-2</v>
+      </c>
+      <c r="AD28">
+        <v>8.6757499999999994E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.29194700000000001</v>
+      </c>
+      <c r="B29">
+        <v>0.27595700000000001</v>
+      </c>
+      <c r="C29">
+        <v>0.26014399999999999</v>
+      </c>
+      <c r="D29">
+        <v>0.24445700000000001</v>
+      </c>
+      <c r="E29">
+        <v>0.22911999999999999</v>
+      </c>
+      <c r="F29">
+        <v>0.214368</v>
+      </c>
+      <c r="G29">
+        <v>0.20035700000000001</v>
+      </c>
+      <c r="H29">
+        <v>0.187165</v>
+      </c>
+      <c r="I29">
+        <v>0.17480399999999999</v>
+      </c>
+      <c r="J29">
+        <v>0.163246</v>
+      </c>
+      <c r="K29">
+        <v>0.15243499999999999</v>
+      </c>
+      <c r="L29">
+        <v>0.14230000000000001</v>
+      </c>
+      <c r="M29">
+        <v>0.13276499999999999</v>
+      </c>
+      <c r="N29">
+        <v>0.123752</v>
+      </c>
+      <c r="O29">
+        <v>0.115185</v>
+      </c>
+      <c r="P29">
+        <v>0.10699400000000001</v>
+      </c>
+      <c r="Q29">
+        <v>9.9112400000000003E-2</v>
+      </c>
+      <c r="R29">
+        <v>9.1482800000000003E-2</v>
+      </c>
+      <c r="S29">
+        <v>8.4053299999999997E-2</v>
+      </c>
+      <c r="T29">
+        <v>7.6779E-2</v>
+      </c>
+      <c r="U29">
+        <v>6.9621699999999995E-2</v>
+      </c>
+      <c r="V29">
+        <v>6.2549800000000003E-2</v>
+      </c>
+      <c r="W29">
+        <v>5.5537499999999997E-2</v>
+      </c>
+      <c r="X29">
+        <v>4.8564299999999998E-2</v>
+      </c>
+      <c r="Y29">
+        <v>4.1614600000000002E-2</v>
+      </c>
+      <c r="Z29">
+        <v>3.4677100000000002E-2</v>
+      </c>
+      <c r="AA29">
+        <v>2.77443E-2</v>
+      </c>
+      <c r="AB29">
+        <v>2.0811400000000001E-2</v>
+      </c>
+      <c r="AC29">
+        <v>1.3876400000000001E-2</v>
+      </c>
+      <c r="AD29">
+        <v>6.9389500000000002E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.204681</v>
+      </c>
+      <c r="B30">
+        <v>0.19924</v>
+      </c>
+      <c r="C30">
+        <v>0.19126399999999999</v>
+      </c>
+      <c r="D30">
+        <v>0.18166399999999999</v>
+      </c>
+      <c r="E30">
+        <v>0.17133499999999999</v>
+      </c>
+      <c r="F30">
+        <v>0.16089100000000001</v>
+      </c>
+      <c r="G30">
+        <v>0.150696</v>
+      </c>
+      <c r="H30">
+        <v>0.14094300000000001</v>
+      </c>
+      <c r="I30">
+        <v>0.131718</v>
+      </c>
+      <c r="J30">
+        <v>0.12304</v>
+      </c>
+      <c r="K30">
+        <v>0.114894</v>
+      </c>
+      <c r="L30">
+        <v>0.107239</v>
+      </c>
+      <c r="M30">
+        <v>0.10002800000000001</v>
+      </c>
+      <c r="N30">
+        <v>9.3206899999999995E-2</v>
+      </c>
+      <c r="O30">
+        <v>8.67227E-2</v>
+      </c>
+      <c r="P30">
+        <v>8.0523899999999995E-2</v>
+      </c>
+      <c r="Q30">
+        <v>7.4562600000000007E-2</v>
+      </c>
+      <c r="R30">
+        <v>6.8795499999999996E-2</v>
+      </c>
+      <c r="S30">
+        <v>6.3184100000000007E-2</v>
+      </c>
+      <c r="T30">
+        <v>5.7694700000000002E-2</v>
+      </c>
+      <c r="U30">
+        <v>5.2298600000000001E-2</v>
+      </c>
+      <c r="V30">
+        <v>4.6971400000000003E-2</v>
+      </c>
+      <c r="W30">
+        <v>4.1693599999999997E-2</v>
+      </c>
+      <c r="X30">
+        <v>3.6449299999999997E-2</v>
+      </c>
+      <c r="Y30">
+        <v>3.1226400000000001E-2</v>
+      </c>
+      <c r="Z30">
+        <v>2.6015799999999999E-2</v>
+      </c>
+      <c r="AA30">
+        <v>2.0811400000000001E-2</v>
+      </c>
+      <c r="AB30">
+        <v>1.5609100000000001E-2</v>
+      </c>
+      <c r="AC30">
+        <v>1.04067E-2</v>
+      </c>
+      <c r="AD30">
+        <v>5.2036799999999996E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.119628</v>
+      </c>
+      <c r="B31">
+        <v>0.125057</v>
+      </c>
+      <c r="C31">
+        <v>0.12400700000000001</v>
+      </c>
+      <c r="D31">
+        <v>0.119601</v>
+      </c>
+      <c r="E31">
+        <v>0.113665</v>
+      </c>
+      <c r="F31">
+        <v>0.107165</v>
+      </c>
+      <c r="G31">
+        <v>0.100592</v>
+      </c>
+      <c r="H31">
+        <v>9.4193899999999997E-2</v>
+      </c>
+      <c r="I31">
+        <v>8.8083499999999995E-2</v>
+      </c>
+      <c r="J31">
+        <v>8.2304199999999994E-2</v>
+      </c>
+      <c r="K31">
+        <v>7.6860200000000004E-2</v>
+      </c>
+      <c r="L31">
+        <v>7.1734900000000004E-2</v>
+      </c>
+      <c r="M31">
+        <v>6.6900799999999996E-2</v>
+      </c>
+      <c r="N31">
+        <v>6.2325400000000003E-2</v>
+      </c>
+      <c r="O31">
+        <v>5.7975100000000002E-2</v>
+      </c>
+      <c r="P31">
+        <v>5.3816599999999999E-2</v>
+      </c>
+      <c r="Q31">
+        <v>4.9818599999999998E-2</v>
+      </c>
+      <c r="R31">
+        <v>4.5952600000000003E-2</v>
+      </c>
+      <c r="S31">
+        <v>4.2193000000000001E-2</v>
+      </c>
+      <c r="T31">
+        <v>3.8517299999999997E-2</v>
+      </c>
+      <c r="U31">
+        <v>3.4906300000000001E-2</v>
+      </c>
+      <c r="V31">
+        <v>3.1343700000000002E-2</v>
+      </c>
+      <c r="W31">
+        <v>2.7816199999999999E-2</v>
+      </c>
+      <c r="X31">
+        <v>2.4313000000000001E-2</v>
+      </c>
+      <c r="Y31">
+        <v>2.0825900000000001E-2</v>
+      </c>
+      <c r="Z31">
+        <v>1.7348499999999999E-2</v>
+      </c>
+      <c r="AA31">
+        <v>1.3876400000000001E-2</v>
+      </c>
+      <c r="AB31">
+        <v>1.0406800000000001E-2</v>
+      </c>
+      <c r="AC31">
+        <v>6.9378799999999996E-3</v>
+      </c>
+      <c r="AD31">
+        <v>3.4690200000000002E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4.4244899999999997E-2</v>
+      </c>
+      <c r="B32">
+        <v>5.7352E-2</v>
+      </c>
+      <c r="C32">
+        <v>6.01065E-2</v>
+      </c>
+      <c r="D32">
+        <v>5.9067000000000001E-2</v>
+      </c>
+      <c r="E32">
+        <v>5.6560600000000003E-2</v>
+      </c>
+      <c r="F32">
+        <v>5.3510000000000002E-2</v>
+      </c>
+      <c r="G32">
+        <v>5.03148E-2</v>
+      </c>
+      <c r="H32">
+        <v>4.7156700000000003E-2</v>
+      </c>
+      <c r="I32">
+        <v>4.4118200000000003E-2</v>
+      </c>
+      <c r="J32">
+        <v>4.1232600000000001E-2</v>
+      </c>
+      <c r="K32">
+        <v>3.8508100000000003E-2</v>
+      </c>
+      <c r="L32">
+        <v>3.5939400000000003E-2</v>
+      </c>
+      <c r="M32">
+        <v>3.3514799999999997E-2</v>
+      </c>
+      <c r="N32">
+        <v>3.1219E-2</v>
+      </c>
+      <c r="O32">
+        <v>2.9035700000000001E-2</v>
+      </c>
+      <c r="P32">
+        <v>2.6948699999999999E-2</v>
+      </c>
+      <c r="Q32">
+        <v>2.4942599999999999E-2</v>
+      </c>
+      <c r="R32">
+        <v>2.3003300000000001E-2</v>
+      </c>
+      <c r="S32">
+        <v>2.1117799999999999E-2</v>
+      </c>
+      <c r="T32">
+        <v>1.9275199999999999E-2</v>
+      </c>
+      <c r="U32">
+        <v>1.7465600000000001E-2</v>
+      </c>
+      <c r="V32">
+        <v>1.5680900000000001E-2</v>
+      </c>
+      <c r="W32">
+        <v>1.39145E-2</v>
+      </c>
+      <c r="X32">
+        <v>1.2160799999999999E-2</v>
+      </c>
+      <c r="Y32">
+        <v>1.0415600000000001E-2</v>
+      </c>
+      <c r="Z32">
+        <v>8.6757499999999994E-3</v>
+      </c>
+      <c r="AA32">
+        <v>6.9389500000000002E-3</v>
+      </c>
+      <c r="AB32">
+        <v>5.2036799999999996E-3</v>
+      </c>
+      <c r="AC32">
+        <v>3.4690200000000002E-3</v>
+      </c>
+      <c r="AD32">
+        <v>1.7345100000000001E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>7.4098200000000003E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>